--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="304">
   <si>
     <t>id : String [1]</t>
   </si>
@@ -131,9 +131,6 @@
     <t>Deferred_001</t>
   </si>
   <si>
-    <t>A State may specify a set of Event types that may be deferred in that State. This means that Event occurrences of those types will not be dispatched as long as that State remains active. Instead, these Event occurrences remain in the event pool until a state configuration is reached where these Event types are no longer deferred or, if a deferred Event type is used explicitly in a Trigger of a Transition whose source is the deferring State (i.e., a kind of override option). (p.323)</t>
-  </si>
-  <si>
     <t>Deferred_002</t>
   </si>
   <si>
@@ -305,9 +302,6 @@
     <t>a Transition terminating on this Pseudostate implies restoring the Region to that same state configuration, but with all the semantics of entering a State (see the Subclause describing State entry). The entry Behaviors of all States in the restored state configuration are performed in the appropriate order starting with the outermost State. (p.326)</t>
   </si>
   <si>
-    <t>History_006</t>
-  </si>
-  <si>
     <t>represents the most recent active substate of its containing Region, but not the substates of that substate. A Transition terminating on this Pseudostate implies restoring the Region to that substate with all the semantics of entering a State. A single outgoing Transition from this Pseudostate may be defined terminating on a substate of the composite State. This substate is the default shallow history state of the composite State. (p.326)</t>
   </si>
   <si>
@@ -557,9 +551,6 @@
     <t>Event_004</t>
   </si>
   <si>
-    <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. (p.330) The set of Transitions that will fire are the Transitions in the Regions of the current state configuration that satisfy the following conditions: All Transitions in the set are enabled. There are no conflicting Transitions within the set. There is no Transition outside the set that has higher priority than a Transition in the set (that is, enabled Transitions with highest priorities are in the set while conflicting Transitions with lower priorities are left out).</t>
-  </si>
-  <si>
     <t>Event_005</t>
   </si>
   <si>
@@ -596,12 +587,6 @@
     <t>When all orthogonal Regions have finished executing the Transition, the current Event occurrence is fully consumed, and the run-to-completion step is completed. (p.330)</t>
   </si>
   <si>
-    <t>Event_012</t>
-  </si>
-  <si>
-    <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. (p.330) The set of Transitions that will fire are the Transitions in the Regions of the current state configuration that satisfy the following conditions: All Transitions in the set are enabled. There are no conflicting Transitions within the set. There is no Transition outside the set that has higher priority than a Transition in the set (that is, enabled Transitions with highest priorities are in the set while conflicting Transitions with lower priorities are left out). (p.331-332)</t>
-  </si>
-  <si>
     <t>Event_013</t>
   </si>
   <si>
@@ -671,10 +656,137 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Related to Transition_007. The test for requirement Transition_007 also verifies requirement Transition_009</t>
-  </si>
-  <si>
     <t>Outside the scope of PSSM</t>
+  </si>
+  <si>
+    <t>As fUML is agnostic of time and PSSM relies ont it, the duration of a transition traversal is considered as being "zero" time.</t>
+  </si>
+  <si>
+    <t>There is no dedicated test for requirement "Transition003" but typically test "Entering011" shows the case of transition executed as part of a more complex compound transitions.</t>
+  </si>
+  <si>
+    <t>Cannot be tested by the test suite</t>
+  </si>
+  <si>
+    <t>Exit001 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Cannot be tested by the test suite. Information that is materialized within the runtime</t>
+  </si>
+  <si>
+    <t>Junction_001</t>
+  </si>
+  <si>
+    <t>Junction_002</t>
+  </si>
+  <si>
+    <t>Junction_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is actually shown in test Fork_001 and Fork_002 as well as in other tests located in the "Entering" section </t>
+  </si>
+  <si>
+    <t>NEUTRAL</t>
+  </si>
+  <si>
+    <t>Coverage</t>
+  </si>
+  <si>
+    <t>Deferred_003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> if a deferred Event type is used explicitly in a Trigger of a Transition whose source is the deferring State (i.e., a kind of override option)</t>
+  </si>
+  <si>
+    <t>A State may specify a set of Event types that may be deferred in that State. This means that Event occurrences of those types will not be dispatched as long as that State remains active. Instead, these Event occurrences remain in the event pool until a state configuration is reached where these Event types are no longer deferred. (p.323)</t>
+  </si>
+  <si>
+    <t>Behavior 001  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Behavior 002  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Behavior 003 - A and B Tests verifies this requirement</t>
+  </si>
+  <si>
+    <t>Behavior 004  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Choice 001  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Choice 002  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Choice 003  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Deferred 001  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Deferred 003  Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Deferred 002 Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Entry002-C test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Entry002-D test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Behavior003-A and Behavior003-B show support for this requirement</t>
+  </si>
+  <si>
+    <t>Entering 004 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Entering 005 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Entering 009 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Entering 010 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Same as Entering_006</t>
+  </si>
+  <si>
+    <t>Entering 011 test verifies this requirement. Note that is is something that is also shwown in Transition 017 test.</t>
+  </si>
+  <si>
+    <t>Fork 001 Test shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Behavior003-A and B Tests shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Entry 002 tests shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Event 001 test shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Event 002 test shows support for this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is something that can be observed in several existing tests of the PSSM test suite. As an example "Exiting001", "Entering011" demonstrates execution of a step that leads to fire a number of transition. This is considered as being verified even though there is not test dedicated to requirement "Event003" </t>
+  </si>
+  <si>
+    <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. The set of Transitions that will fire are the Transitions in the Regions of the current state configuration that satisfy the following conditions: All Transitions in the set are enabled. There are no conflicting Transitions within the set. There is no Transition outside the set that has higher priority than a Transition in the set (that is, enabled Transitions with highest priorities are in the set while conflicting Transitions with lower priorities are left out).</t>
+  </si>
+  <si>
+    <t>Event 015 and Event 016 shows support for this requirement</t>
+  </si>
+  <si>
+    <t>For instance a state-machine cannot receive call events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This does not need to be tested since it ensure by fUML semantics that PSSM does not change. Nevertheless such one by on e disptaching can be observed in all presented tests.
+</t>
   </si>
   <si>
     <r>
@@ -683,7 +795,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color rgb="FFFF0000"/>
+        <color theme="1"/>
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
@@ -700,116 +812,155 @@
     </r>
   </si>
   <si>
-    <t>If such transitions do not have triggers they are considered as anonymous transitions.</t>
-  </si>
-  <si>
-    <t>This is also something that is demonstrated by the execution of the test Transitions017 showing how completion events are handled in the context of a composite containing orthogonal regions</t>
-  </si>
-  <si>
-    <t>As fUML is agnostic of time and PSSM relies ont it, the duration of a transition traversal is considered as being "zero" time.</t>
-  </si>
-  <si>
-    <t>There is no dedicated test for requirement "Transition003" but typically test "Entering011" shows the case of transition executed as part of a more complex compound transitions.</t>
-  </si>
-  <si>
-    <t>Cannot be tested by the test suite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is something that is ensured by fUML common behavior event dispatching mechanism  </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>In those cases, only one is selected and executed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. (p.330)</t>
-    </r>
-  </si>
-  <si>
-    <t>Entry002-ter test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entry002-quater test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Exit001 test verifies this requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is something that can be observed in several existing tests of the PSSM test suite. As an example "Exiting001", "Event008", "Entering011" demonstrates execution of a step that leads to fire a number of transition. This is considered as being verified even though there is not test dedicated to requirement "Event003" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overlap with Event_012. See tests Event_015 and Event_017 </t>
-  </si>
-  <si>
-    <t>Cannot be tested by the test suite. Information that is materialized within the runtime</t>
-  </si>
-  <si>
-    <t>See test Exiting_003</t>
-  </si>
-  <si>
-    <t>See tests Choice_001, Choice_002 and Choice_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The case of the choice pseudo state is supported. See test Choice_002 </t>
-  </si>
-  <si>
-    <t>Overlap with Event_004. See tests Event_015</t>
-  </si>
-  <si>
-    <t>This is tested by "Fork001"</t>
-  </si>
-  <si>
-    <t>Junction_001</t>
-  </si>
-  <si>
-    <t>Junction_002</t>
-  </si>
-  <si>
-    <t>Junction_003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is actually shown in test Fork_001 and Fork_002 as well as in other tests located in the "Entering" section </t>
-  </si>
-  <si>
-    <t>There is no dedicated test case for "Region_002" nevertheless a number of test cases cover the default activation of a region. Please see "Entering009" and "Entering011"</t>
-  </si>
-  <si>
-    <t>NEUTRAL</t>
-  </si>
-  <si>
-    <t>This can be observed in test "Event_009"</t>
-  </si>
-  <si>
-    <t>See test Transition011-quinquies</t>
-  </si>
-  <si>
-    <t>See test Final001</t>
-  </si>
-  <si>
-    <t>Coverage</t>
+    <t>Event 008 test verifies this requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Event 009 test verifies this requirement but Event 016 -B test highlights some limitations </t>
+  </si>
+  <si>
+    <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. (p.330)</t>
+  </si>
+  <si>
+    <t>Event 010 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Event_009 shows support of this requirement</t>
+  </si>
+  <si>
+    <t>Event 015 test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Call events need to be supported in fUML first.</t>
+  </si>
+  <si>
+    <t>Any receive event are not supported. This is also the case for call event. Hence the requirement cannot be considered as being supported;</t>
+  </si>
+  <si>
+    <t>Event 016 - A test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>There is no test to demonstrate such support for transitions chained in a compound transition.</t>
+  </si>
+  <si>
+    <t>TransitionSelectionAlgorithmTest and Event 018  shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Exit 001 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Exit 002 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Exiting 001 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Exiting 002 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Exiting 003 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Exiting 004 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Exiting 005 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Final 001 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Deep history is not supported</t>
+  </si>
+  <si>
+    <t>History pseudostates not supported</t>
+  </si>
+  <si>
+    <t>Join 001 and Join 002 tests verify this requirement.</t>
+  </si>
+  <si>
+    <t>Junction pseudostate is not supported</t>
+  </si>
+  <si>
+    <t>Entering 011 and Entry002-D tests show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Final 001  and Entering 011 show support for this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terminate 001 and Terminate 003 tests verify this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terminate 002 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transition 001 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Transition 007 test verifies this requirement.</t>
+  </si>
+  <si>
+    <t>Transition 007 and Event 016 A tests show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Transition 007 test show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Transition 010 and Transition 011 - C test show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Transition 011 - A, B, D and E tests show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Behavior 004 test shows support for this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Exiting 003 test shows support for this requirement</t>
+  </si>
+  <si>
+    <t>Transition 011 - A shows support for this requirement</t>
+  </si>
+  <si>
+    <t>Transition 015 verifies this requirement</t>
+  </si>
+  <si>
+    <t>Transition 016 verifies this requirement</t>
+  </si>
+  <si>
+    <t>Transition 017 verifies this requirement</t>
+  </si>
+  <si>
+    <t>Transition 020 verifies this requirement</t>
+  </si>
+  <si>
+    <t>Transition 019 verifies this requirement</t>
+  </si>
+  <si>
+    <t>Transition 022 verifies this requirement</t>
+  </si>
+  <si>
+    <t>Transition017  and Final001 shows support of this requirement.</t>
+  </si>
+  <si>
+    <t>This is currently not supported by the execution model.</t>
+  </si>
+  <si>
+    <t>Choice_001, Choice_002 and Choice_003 show support for this requirement.</t>
+  </si>
+  <si>
+    <t>A number of tests use this. Tests such as Transition 007 and Transition 017 shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Entering 011 and Transition 017 shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Choice case is tested while the join case remain not tested</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,14 +1128,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1194,8 +1339,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1364,6 +1521,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1410,7 +1580,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1457,9 +1627,6 @@
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1469,12 +1636,8 @@
     <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1491,10 +1654,31 @@
     <xf numFmtId="0" fontId="20" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="12" xfId="8" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="16" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="16" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1545,19 +1729,19 @@
   </cellStyles>
   <dxfs count="4">
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1764,13 +1948,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>108</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>85</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>83</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2788,46 +2972,46 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G3" s="2">
-        <f xml:space="preserve"> ROWS(C7:C114)</f>
-        <v>108</v>
+        <f xml:space="preserve"> ROWS(C7:C113)</f>
+        <v>107</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G4" s="2">
-        <f xml:space="preserve"> COUNTIF(C7:C114,"YES") + COUNTIF(C7:C114,"NEUTRAL")</f>
-        <v>85</v>
+        <f xml:space="preserve"> COUNTIF(C7:C113,"YES") + COUNTIF(C7:C113,"NEUTRAL")</f>
+        <v>88</v>
       </c>
       <c r="H4" s="4">
         <f xml:space="preserve"> (G4 * 100) / G3</f>
-        <v>78.703703703703709</v>
+        <v>82.242990654205613</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G5" s="2">
-        <f xml:space="preserve"> COUNTIF(D7:D114,"YES") + COUNTIF(D7:D114,"NEUTRAL")</f>
-        <v>83</v>
+        <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
+        <v>87</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>76.851851851851848</v>
+        <v>81.308411214953267</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2838,13 +3022,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2855,12 +3039,14 @@
         <v>21</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E7" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
@@ -2870,12 +3056,14 @@
         <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E8" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -2885,12 +3073,14 @@
         <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E9" s="22"/>
+        <v>202</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
@@ -2900,90 +3090,98 @@
         <v>27</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E10" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E12" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E13" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="C14" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>89</v>
-      </c>
       <c r="C15" s="15" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -2991,767 +3189,825 @@
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E16" s="18"/>
-    </row>
-    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+      <c r="B17" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
+        <v>223</v>
+      </c>
+      <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="C18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E17" s="18"/>
-    </row>
-    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="B22" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C22" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E22" s="30"/>
+    </row>
+    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="18"/>
-    </row>
-    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+      <c r="B23" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C23" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E22" s="22"/>
-    </row>
-    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="B24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C24" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E24" s="30"/>
+    </row>
+    <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E23" s="18"/>
-    </row>
-    <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="B25" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="C25" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E24" s="18"/>
-    </row>
-    <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="B26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E25" s="18"/>
-    </row>
-    <row r="26" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="B27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E26" s="18"/>
-    </row>
-    <row r="27" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C28" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E27" s="18"/>
-    </row>
-    <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="B29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E29" s="31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E28" s="18"/>
-    </row>
-    <row r="29" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="B30" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E29" s="18"/>
-    </row>
-    <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="B31" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E30" s="18"/>
-    </row>
-    <row r="31" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11" t="s">
+      <c r="B32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E31" s="23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="B33" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="C33" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
+      <c r="B34" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E33" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="12" t="s">
+      <c r="C34" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E34" s="18"/>
-    </row>
-    <row r="35" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="22"/>
-    </row>
-    <row r="36" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="C36" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B37" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E36" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+      <c r="C37" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B38" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C37" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E37" s="18"/>
-    </row>
-    <row r="38" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="C39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C38" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E38" s="18"/>
-    </row>
-    <row r="39" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
+      <c r="C40" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B41" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="B42" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C42" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E42" s="31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E40" s="24" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11" t="s">
+      <c r="B43" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="C43" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E41" s="18"/>
-    </row>
-    <row r="42" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="B44" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C44" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C42" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E42" s="25" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
+      <c r="B45" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B46" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="C46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="B47" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B48" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="12" t="s">
+      <c r="C48" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E48" s="22" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E46" s="22"/>
-    </row>
-    <row r="47" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
+      <c r="B49" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E47" s="24" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E48" s="24" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B49" s="21" t="s">
-        <v>194</v>
-      </c>
       <c r="C49" s="15" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>217</v>
+        <v>203</v>
+      </c>
+      <c r="E49" s="31" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E50" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E50" s="31" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E51" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E52" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E53" s="22"/>
+        <v>203</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="54" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E54" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C55" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="19" t="s">
         <v>207</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E55" s="18"/>
-    </row>
-    <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" s="21" t="s">
-        <v>214</v>
+      <c r="B56" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E56" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E57" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="C58" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="C59" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E59" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>68</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E61" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>72</v>
-      </c>
       <c r="C62" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>74</v>
-      </c>
       <c r="C63" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E63" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="E63" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>91</v>
-      </c>
       <c r="C64" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="65" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
@@ -3761,821 +4017,858 @@
         <v>29</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E65" s="18"/>
-    </row>
-    <row r="66" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E65" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>29</v>
+      <c r="B66" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E66" s="18"/>
-    </row>
-    <row r="67" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E66" s="31" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>32</v>
+      <c r="B67" s="8" t="s">
+        <v>34</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E67" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E67" s="31" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="12" t="s">
+      <c r="A68" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>34</v>
+      <c r="B68" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E68" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E68" s="31" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="69" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="8" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E69" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E69" s="31" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="70" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="12" t="s">
+      <c r="A70" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>95</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E70" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="B71" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="C71" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C71" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E71" s="18"/>
-    </row>
-    <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="B72" s="8" t="s">
+      <c r="C72" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="E72" s="31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C72" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E72" s="18"/>
-    </row>
-    <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>99</v>
-      </c>
       <c r="C73" s="15" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E73" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E73" s="31" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="74" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>100</v>
+      <c r="A74" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E74" s="18"/>
-    </row>
-    <row r="75" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>5</v>
+        <v>202</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>7</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E75" s="18"/>
-    </row>
-    <row r="76" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B76" s="8" t="s">
-        <v>7</v>
+        <v>202</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E76" s="25" t="s">
-        <v>241</v>
+        <v>202</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>9</v>
+      <c r="A77" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E77" s="25" t="s">
-        <v>240</v>
+        <v>221</v>
+      </c>
+      <c r="E77" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B78" s="8" t="s">
-        <v>11</v>
+      <c r="A78" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E78" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>13</v>
+      <c r="A79" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E79" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="E79" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="8" t="s">
-        <v>15</v>
+      <c r="A80" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E80" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="E80" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>17</v>
+      <c r="A81" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E81" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="E81" s="32" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>19</v>
+      <c r="A82" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>80</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E82" s="24" t="s">
-        <v>223</v>
+        <v>221</v>
+      </c>
+      <c r="E82" s="33" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="21" t="s">
+      <c r="A83" s="19" t="s">
         <v>81</v>
       </c>
+      <c r="B83" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C83" s="15" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E83" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
+      </c>
+      <c r="E83" s="33" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="19" t="s">
         <v>83</v>
       </c>
+      <c r="B84" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C84" s="15" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E84" s="19" t="s">
-        <v>217</v>
+        <v>221</v>
+      </c>
+      <c r="E84" s="33" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>85</v>
+      <c r="A85" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E85" s="19" t="s">
-        <v>217</v>
+        <v>202</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="7" t="s">
         <v>115</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E86" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="87" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="7" t="s">
+      <c r="B87" s="8" t="s">
         <v>117</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E87" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="88" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="7" t="s">
         <v>119</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E88" s="18"/>
-    </row>
-    <row r="89" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="34" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="7" t="s">
+      <c r="B89" s="8" t="s">
         <v>121</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E89" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E89" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="15" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E90" s="25" t="s">
-        <v>222</v>
+      <c r="E90" s="32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="7" t="s">
+      <c r="B91" s="8" t="s">
         <v>125</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E91" s="25" t="s">
-        <v>231</v>
+        <v>221</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="12" t="s">
+      <c r="A92" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="8" t="s">
+      <c r="B92" s="7" t="s">
         <v>127</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E92" s="25" t="s">
-        <v>231</v>
+        <v>221</v>
+      </c>
+      <c r="E92" s="32" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="7" t="s">
+      <c r="B93" s="8" t="s">
         <v>129</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E93" s="25" t="s">
-        <v>231</v>
+        <v>202</v>
+      </c>
+      <c r="E93" s="22" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="12" t="s">
+      <c r="A94" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="8" t="s">
+      <c r="B94" s="7" t="s">
         <v>131</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E94" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E94" s="22" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="95" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="B95" s="8" t="s">
         <v>133</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E95" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="96" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="B96" s="7" t="s">
         <v>135</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E96" s="23" t="s">
-        <v>216</v>
+        <v>202</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="11" t="s">
+      <c r="A97" s="24" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="7" t="s">
+      <c r="B97" s="23" t="s">
         <v>137</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E97" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="27" t="s">
+      <c r="A98" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="26" t="s">
+      <c r="B98" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E98" s="30"/>
+        <v>202</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="8" t="s">
         <v>141</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E99" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E99" s="22" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="12" t="s">
+      <c r="A100" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="8" t="s">
+      <c r="B100" s="26" t="s">
         <v>143</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E100" s="25" t="s">
-        <v>232</v>
+        <v>202</v>
+      </c>
+      <c r="E100" s="35" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="28" t="s">
+      <c r="A101" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="8" t="s">
         <v>145</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E101" s="31" t="s">
-        <v>244</v>
+        <v>202</v>
+      </c>
+      <c r="E101" s="22" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="12" t="s">
+      <c r="A102" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="8" t="s">
+      <c r="B102" s="7" t="s">
         <v>147</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E102" s="22"/>
+        <v>202</v>
+      </c>
+      <c r="E102" s="22" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="8" t="s">
         <v>149</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E103" s="22"/>
+        <v>202</v>
+      </c>
+      <c r="E103" s="22" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="12" t="s">
+      <c r="A104" s="19" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="8" t="s">
+      <c r="B104" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E104" s="22"/>
+        <v>221</v>
+      </c>
+      <c r="E104" s="18" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="105" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
+      <c r="A105" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="B105" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="12" t="s">
+      <c r="B106" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="E106" s="22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E106" s="22"/>
-    </row>
-    <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="8" t="s">
         <v>157</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E107" s="22"/>
+        <v>202</v>
+      </c>
+      <c r="E107" s="27" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="108" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="12" t="s">
+      <c r="A108" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="8" t="s">
+      <c r="B108" s="7" t="s">
         <v>159</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E108" s="31" t="s">
-        <v>245</v>
+        <v>202</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="8" t="s">
         <v>161</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E109" s="18"/>
+        <v>203</v>
+      </c>
+      <c r="E109" s="31" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="110" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="8" t="s">
+      <c r="B110" s="7" t="s">
         <v>163</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E110" s="18"/>
+        <v>202</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="8" t="s">
         <v>165</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E111" s="24" t="s">
-        <v>233</v>
+        <v>202</v>
+      </c>
+      <c r="E111" s="22" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="7" t="s">
         <v>167</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E112" s="25" t="s">
-        <v>219</v>
+        <v>202</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="7" t="s">
+      <c r="B113" s="8" t="s">
         <v>169</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E113" s="18"/>
-    </row>
-    <row r="114" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C114" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="D114" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E114" s="25" t="s">
-        <v>234</v>
+        <v>203</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:G108">
     <sortCondition ref="A1"/>
   </sortState>
-  <conditionalFormatting sqref="C7:C114">
+  <conditionalFormatting sqref="C7:C113">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D114">
+  <conditionalFormatting sqref="D7:D113">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D114">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+  <conditionalFormatting sqref="C7:D113">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"YES"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>"NEUTRAL"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C115:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C114:C1048576">
       <formula1>"OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D114">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D113">
       <formula1>"YES,NO,NEUTRAL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT605650\Documents\2015\projets\PSSM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\JT605650\repositories\github\PSSM\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="312">
   <si>
     <t>id : String [1]</t>
   </si>
@@ -737,9 +737,6 @@
     <t>Entry002-D test verifies this requirement</t>
   </si>
   <si>
-    <t>Behavior003-A and Behavior003-B show support for this requirement</t>
-  </si>
-  <si>
     <t>Entering 004 test verifies this requirement</t>
   </si>
   <si>
@@ -752,9 +749,6 @@
     <t>Entering 010 test verifies this requirement</t>
   </si>
   <si>
-    <t>Same as Entering_006</t>
-  </si>
-  <si>
     <t>Entering 011 test verifies this requirement. Note that is is something that is also shwown in Transition 017 test.</t>
   </si>
   <si>
@@ -780,9 +774,6 @@
   </si>
   <si>
     <t>Event 015 and Event 016 shows support for this requirement</t>
-  </si>
-  <si>
-    <t>For instance a state-machine cannot receive call events.</t>
   </si>
   <si>
     <t xml:space="preserve">This does not need to be tested since it ensure by fUML semantics that PSSM does not change. Nevertheless such one by on e disptaching can be observed in all presented tests.
@@ -830,9 +821,6 @@
     <t>Event 015 test verifies this requirement</t>
   </si>
   <si>
-    <t>Call events need to be supported in fUML first.</t>
-  </si>
-  <si>
     <t>Any receive event are not supported. This is also the case for call event. Hence the requirement cannot be considered as being supported;</t>
   </si>
   <si>
@@ -869,18 +857,12 @@
     <t>Final 001 test verifies this requirement.</t>
   </si>
   <si>
-    <t>Deep history is not supported</t>
-  </si>
-  <si>
     <t>History pseudostates not supported</t>
   </si>
   <si>
     <t>Join 001 and Join 002 tests verify this requirement.</t>
   </si>
   <si>
-    <t>Junction pseudostate is not supported</t>
-  </si>
-  <si>
     <t>Entering 011 and Entry002-D tests show support for this requirement.</t>
   </si>
   <si>
@@ -954,6 +936,49 @@
   </si>
   <si>
     <t>Choice case is tested while the join case remain not tested</t>
+  </si>
+  <si>
+    <t>History001_Test_A verifies this requirement</t>
+  </si>
+  <si>
+    <t>History_002_Test_A verifies  this requirement</t>
+  </si>
+  <si>
+    <t>Behavior003-A and Behavior003-B verifies this requirement</t>
+  </si>
+  <si>
+    <t>Duplication of Entering001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This does not need to be tested since it ensure by fUML semantics that PSSM does not change. Nevertheless such one by on e disptaching can be observed in all presented tests cases.
+</t>
+  </si>
+  <si>
+    <t>State-machines can respond to signal, event, call event and completion event which event type supported in PSSM context. Support for this requirement is demonstrated by Event017-X and Event019-X test series.</t>
+  </si>
+  <si>
+    <t>Event_019_X serie verifies this requirement</t>
+  </si>
+  <si>
+    <t>History001_Test_A and History001_Test_B verify this requirement</t>
+  </si>
+  <si>
+    <t>History001_Test_B (deep history)verify this requirement. Note: Add an additional test for shallow history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">History001_Test_A and History001_Test_B verify this requirement </t>
+  </si>
+  <si>
+    <t xml:space="preserve">History002_Test_A and History002_Test_B verify this requirement </t>
+  </si>
+  <si>
+    <t>Junction00X test serie verifies this requirement</t>
+  </si>
+  <si>
+    <t>Junction003_Test and Junction004_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Junction003_Test verifies this requirement</t>
   </si>
 </sst>
 </file>
@@ -1864,7 +1889,7 @@
       <c:layout/>
       <c:bar3DChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1951,10 +1976,10 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>87</c:v>
+                  <c:v>101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1970,12 +1995,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="231248640"/>
-        <c:axId val="231400112"/>
-        <c:axId val="0"/>
+        <c:axId val="16250144"/>
+        <c:axId val="212236320"/>
+        <c:axId val="369399648"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="231248640"/>
+        <c:axId val="16250144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2012,7 +2037,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231400112"/>
+        <c:crossAx val="212236320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2020,9 +2045,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231400112"/>
+        <c:axId val="212236320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2040,7 +2066,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2071,10 +2097,50 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="231248640"/>
+        <c:crossAx val="16250144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:serAx>
+        <c:axId val="369399648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="212236320"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2658,16 +2724,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>261937</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321467</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>345280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8020050</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>119062</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>583406</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2954,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2994,11 +3060,11 @@
       </c>
       <c r="G4" s="2">
         <f xml:space="preserve"> COUNTIF(C7:C113,"YES") + COUNTIF(C7:C113,"NEUTRAL")</f>
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="H4" s="4">
         <f xml:space="preserve"> (G4 * 100) / G3</f>
-        <v>82.242990654205613</v>
+        <v>95.327102803738313</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3007,11 +3073,11 @@
       </c>
       <c r="G5" s="2">
         <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>81.308411214953267</v>
+        <v>94.392523364485982</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3294,12 +3360,14 @@
         <v>39</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="30"/>
+        <v>202</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
@@ -3315,7 +3383,7 @@
         <v>202</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,12 +3394,14 @@
         <v>43</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E24" s="30"/>
+        <v>202</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
@@ -3347,7 +3417,7 @@
         <v>202</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3364,7 +3434,7 @@
         <v>202</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3375,12 +3445,14 @@
         <v>39</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E27" s="30"/>
+        <v>202</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
@@ -3405,13 +3477,13 @@
         <v>39</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>243</v>
+        <v>202</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3428,7 +3500,7 @@
         <v>202</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3517,7 @@
         <v>202</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
@@ -3462,7 +3534,7 @@
         <v>202</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3479,7 +3551,7 @@
         <v>202</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3513,7 +3585,7 @@
         <v>202</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3530,7 +3602,7 @@
         <v>202</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3564,7 +3636,7 @@
         <v>202</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3581,10 +3653,10 @@
         <v>202</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>173</v>
       </c>
@@ -3598,7 +3670,7 @@
         <v>202</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -3606,7 +3678,7 @@
         <v>175</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>202</v>
@@ -3615,10 +3687,10 @@
         <v>202</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>176</v>
       </c>
@@ -3626,16 +3698,16 @@
         <v>177</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+      <c r="E42" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>178</v>
       </c>
@@ -3649,10 +3721,10 @@
         <v>221</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>180</v>
       </c>
@@ -3666,7 +3738,7 @@
         <v>221</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>254</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3674,7 +3746,7 @@
         <v>182</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>202</v>
@@ -3683,7 +3755,7 @@
         <v>202</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3700,7 +3772,7 @@
         <v>202</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3708,7 +3780,7 @@
         <v>185</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>202</v>
@@ -3717,7 +3789,7 @@
         <v>202</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3734,7 +3806,7 @@
         <v>202</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3745,13 +3817,13 @@
         <v>189</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E49" s="31" t="s">
-        <v>262</v>
+        <v>202</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -3768,7 +3840,7 @@
         <v>203</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3785,7 +3857,7 @@
         <v>202</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -3802,7 +3874,7 @@
         <v>202</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3819,7 +3891,7 @@
         <v>203</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -3836,7 +3908,7 @@
         <v>202</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -3853,7 +3925,7 @@
         <v>202</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3887,7 +3959,7 @@
         <v>202</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3904,7 +3976,7 @@
         <v>202</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3921,7 +3993,7 @@
         <v>202</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3938,7 +4010,7 @@
         <v>202</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3955,7 +4027,7 @@
         <v>202</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3972,7 +4044,7 @@
         <v>202</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4006,7 +4078,7 @@
         <v>202</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,13 +4089,13 @@
         <v>29</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>275</v>
+        <v>202</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4034,13 +4106,13 @@
         <v>32</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E66" s="31" t="s">
-        <v>275</v>
+        <v>202</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4057,7 +4129,7 @@
         <v>203</v>
       </c>
       <c r="E67" s="31" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4068,13 +4140,13 @@
         <v>92</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>276</v>
+        <v>202</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4085,13 +4157,13 @@
         <v>93</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E69" s="31" t="s">
-        <v>276</v>
+        <v>202</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4108,7 +4180,7 @@
         <v>202</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4119,13 +4191,13 @@
         <v>96</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E71" s="31" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4136,13 +4208,13 @@
         <v>97</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="31" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4153,13 +4225,13 @@
         <v>98</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E73" s="31" t="s">
-        <v>278</v>
+        <v>202</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4176,7 +4248,7 @@
         <v>202</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4193,7 +4265,7 @@
         <v>202</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4363,7 +4435,7 @@
         <v>202</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4380,7 +4452,7 @@
         <v>202</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4397,7 +4469,7 @@
         <v>202</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4408,10 +4480,10 @@
         <v>119</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>203</v>
+        <v>221</v>
       </c>
       <c r="E88" s="34" t="s">
         <v>212</v>
@@ -4499,7 +4571,7 @@
         <v>202</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4516,7 +4588,7 @@
         <v>202</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4533,7 +4605,7 @@
         <v>202</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4550,7 +4622,7 @@
         <v>202</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4567,7 +4639,7 @@
         <v>202</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4584,7 +4656,7 @@
         <v>202</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4601,7 +4673,7 @@
         <v>202</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4618,7 +4690,7 @@
         <v>202</v>
       </c>
       <c r="E100" s="35" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4635,7 +4707,7 @@
         <v>202</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4652,7 +4724,7 @@
         <v>202</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4669,7 +4741,7 @@
         <v>202</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4703,7 +4775,7 @@
         <v>202</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4720,7 +4792,7 @@
         <v>202</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4737,7 +4809,7 @@
         <v>202</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4754,7 +4826,7 @@
         <v>202</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4771,7 +4843,7 @@
         <v>203</v>
       </c>
       <c r="E109" s="31" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4788,7 +4860,7 @@
         <v>202</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,7 +4877,7 @@
         <v>202</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4822,7 +4894,7 @@
         <v>202</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4839,7 +4911,7 @@
         <v>203</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="313">
   <si>
     <t>id : String [1]</t>
   </si>
@@ -171,9 +171,6 @@
   </si>
   <si>
     <t>Entering_007</t>
-  </si>
-  <si>
-    <t>Rules described in req Entering_006 do not apply in the case where the most recently active substate is the FinalState, or this is the first entry into this State. In the latter two cases, if a default shallow history Transition is defined originating from the shallowHistory Pseudostate, it will be taken. Otherwise, default State entry is applied. (p.324)</t>
   </si>
   <si>
     <t>Entering_008</t>
@@ -857,9 +854,6 @@
     <t>Final 001 test verifies this requirement.</t>
   </si>
   <si>
-    <t>History pseudostates not supported</t>
-  </si>
-  <si>
     <t>Join 001 and Join 002 tests verify this requirement.</t>
   </si>
   <si>
@@ -979,13 +973,59 @@
   </si>
   <si>
     <t>Junction003_Test verifies this requirement</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Rules described in req Entering_006 do not apply in the case where the most recently active substate is the FinalState</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, or this is the first entry into this State. In the latter two cases, if a default shallow history Transition is defined originating from the shallowHistory Pseudostate, it will be taken. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Otherwise, default State entry is applied</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>. (p.324)</t>
+    </r>
+  </si>
+  <si>
+    <t>Tests History002_Test_C and History002_Test_D verify this requirement</t>
+  </si>
+  <si>
+    <t>History_002_Test_C verifies  this requirement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1150,6 +1190,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1605,7 +1652,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1687,9 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1976,10 +2020,10 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102</c:v>
+                  <c:v>104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,12 +2039,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="16250144"/>
-        <c:axId val="212236320"/>
-        <c:axId val="369399648"/>
+        <c:axId val="220436552"/>
+        <c:axId val="220436944"/>
+        <c:axId val="221816488"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="16250144"/>
+        <c:axId val="220436552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,7 +2081,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212236320"/>
+        <c:crossAx val="220436944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2045,7 +2089,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="212236320"/>
+        <c:axId val="220436944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2097,12 +2141,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="16250144"/>
+        <c:crossAx val="220436552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="369399648"/>
+        <c:axId val="221816488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2138,7 +2182,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212236320"/>
+        <c:crossAx val="220436944"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3020,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3038,15 +3082,15 @@
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F3" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G3" s="2">
         <f xml:space="preserve"> ROWS(C7:C113)</f>
@@ -3056,28 +3100,28 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F4" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G4" s="2">
         <f xml:space="preserve"> COUNTIF(C7:C113,"YES") + COUNTIF(C7:C113,"NEUTRAL")</f>
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H4" s="4">
         <f xml:space="preserve"> (G4 * 100) / G3</f>
-        <v>95.327102803738313</v>
+        <v>97.196261682242991</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F5" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" s="2">
         <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>94.392523364485982</v>
+        <v>96.261682242990659</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3088,13 +3132,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>201</v>
-      </c>
       <c r="E6" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3105,13 +3149,13 @@
         <v>21</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,13 +3166,13 @@
         <v>23</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3139,13 +3183,13 @@
         <v>25</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3156,98 +3200,98 @@
         <v>27</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="C11" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="C12" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>104</v>
-      </c>
       <c r="C13" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>86</v>
-      </c>
       <c r="C14" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3255,16 +3299,16 @@
         <v>35</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3272,84 +3316,84 @@
         <v>36</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="29" t="s">
         <v>37</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="C20" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="8" t="s">
-        <v>78</v>
-      </c>
       <c r="C21" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3360,13 +3404,13 @@
         <v>39</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3377,13 +3421,13 @@
         <v>41</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3394,13 +3438,13 @@
         <v>43</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3411,13 +3455,13 @@
         <v>45</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3428,13 +3472,13 @@
         <v>47</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D26" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,13 +3489,13 @@
         <v>39</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D27" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3459,150 +3503,152 @@
         <v>49</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D28" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="30"/>
+        <v>201</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>53</v>
-      </c>
       <c r="C30" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="C31" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>57</v>
-      </c>
       <c r="C32" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>59</v>
-      </c>
       <c r="C33" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="C34" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E34" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C35" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="C36" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D36" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3613,13 +3659,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E37" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3627,458 +3673,458 @@
         <v>2</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E38" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>172</v>
-      </c>
       <c r="C39" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E39" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>174</v>
-      </c>
       <c r="C40" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="22" t="s">
         <v>249</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>177</v>
-      </c>
       <c r="C42" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>179</v>
-      </c>
       <c r="C43" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>181</v>
-      </c>
       <c r="C44" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="21" t="s">
         <v>252</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="B46" s="7" t="s">
-        <v>184</v>
-      </c>
       <c r="C46" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="21" t="s">
         <v>255</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B48" s="7" t="s">
-        <v>187</v>
-      </c>
       <c r="C48" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E48" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="23" t="s">
         <v>188</v>
       </c>
-      <c r="B49" s="23" t="s">
-        <v>189</v>
-      </c>
       <c r="C49" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>191</v>
-      </c>
       <c r="C50" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E50" s="31" t="s">
-        <v>259</v>
+        <v>202</v>
+      </c>
+      <c r="E50" s="30" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B51" s="7" t="s">
-        <v>193</v>
-      </c>
       <c r="C51" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>195</v>
-      </c>
       <c r="C52" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B53" s="7" t="s">
-        <v>197</v>
-      </c>
       <c r="C53" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>261</v>
+        <v>202</v>
+      </c>
+      <c r="E53" s="30" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="8" t="s">
-        <v>199</v>
-      </c>
       <c r="C54" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="C57" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="8" t="s">
-        <v>63</v>
-      </c>
       <c r="C58" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C59" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="8" t="s">
-        <v>67</v>
-      </c>
       <c r="C60" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>69</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="C62" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="C63" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E63" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>90</v>
-      </c>
       <c r="C64" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4089,13 +4135,13 @@
         <v>29</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4106,13 +4152,13 @@
         <v>32</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4123,13 +4169,13 @@
         <v>34</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>271</v>
+        <v>201</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4137,101 +4183,101 @@
         <v>33</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="C70" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D71" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4242,13 +4288,13 @@
         <v>5</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4259,13 +4305,13 @@
         <v>7</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4276,13 +4322,13 @@
         <v>9</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E76" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4293,13 +4339,13 @@
         <v>11</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E77" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4310,13 +4356,13 @@
         <v>13</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E78" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4327,13 +4373,13 @@
         <v>15</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E79" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E79" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4344,13 +4390,13 @@
         <v>17</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E80" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E80" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4361,557 +4407,557 @@
         <v>19</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>214</v>
+        <v>220</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B82" s="20" t="s">
-        <v>80</v>
-      </c>
       <c r="C82" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E82" s="33" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="20" t="s">
-        <v>82</v>
-      </c>
       <c r="C83" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E83" s="33" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="E83" s="32" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B84" s="20" t="s">
-        <v>84</v>
-      </c>
       <c r="C84" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E84" s="33" t="s">
-        <v>211</v>
+        <v>220</v>
+      </c>
+      <c r="E84" s="32" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>113</v>
-      </c>
       <c r="C85" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="C86" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="C87" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>119</v>
-      </c>
       <c r="C88" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E88" s="34" t="s">
-        <v>212</v>
+        <v>220</v>
+      </c>
+      <c r="E88" s="33" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>121</v>
-      </c>
       <c r="C89" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>123</v>
-      </c>
       <c r="C90" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E90" s="32" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="E90" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>125</v>
-      </c>
       <c r="C91" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E91" s="32" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="E91" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B92" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="C92" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E92" s="32" t="s">
-        <v>216</v>
+        <v>220</v>
+      </c>
+      <c r="E92" s="31" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>129</v>
-      </c>
       <c r="C93" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B94" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="C94" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>133</v>
-      </c>
       <c r="C95" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="7" t="s">
-        <v>135</v>
-      </c>
       <c r="C96" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="B97" s="23" t="s">
-        <v>137</v>
-      </c>
       <c r="C97" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="C98" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>141</v>
-      </c>
       <c r="C99" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="B100" s="26" t="s">
-        <v>143</v>
-      </c>
       <c r="C100" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E100" s="35" t="s">
-        <v>285</v>
+        <v>201</v>
+      </c>
+      <c r="E100" s="34" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="C101" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="C102" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C103" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="B104" s="20" t="s">
-        <v>151</v>
-      </c>
       <c r="C104" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="C107" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="C108" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C109" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="E109" s="31" t="s">
-        <v>293</v>
+        <v>202</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B110" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="C110" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="C111" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B112" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="C112" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>169</v>
-      </c>
       <c r="C113" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D113" s="15" t="s">
-        <v>203</v>
-      </c>
       <c r="E113" s="22" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -818,9 +818,6 @@
     <t>Event 015 test verifies this requirement</t>
   </si>
   <si>
-    <t>Any receive event are not supported. This is also the case for call event. Hence the requirement cannot be considered as being supported;</t>
-  </si>
-  <si>
     <t>Event 016 - A test verifies this requirement.</t>
   </si>
   <si>
@@ -915,9 +912,6 @@
   </si>
   <si>
     <t>Transition017  and Final001 shows support of this requirement.</t>
-  </si>
-  <si>
-    <t>This is currently not supported by the execution model.</t>
   </si>
   <si>
     <t>Choice_001, Choice_002 and Choice_003 show support for this requirement.</t>
@@ -1019,6 +1013,12 @@
   </si>
   <si>
     <t>History_002_Test_C verifies  this requirement</t>
+  </si>
+  <si>
+    <t>Tests Transition_023_Test, Entry002_Test_E and All the Junction_00X serie verify this requirement.</t>
+  </si>
+  <si>
+    <t>See all Event_00X_Test serie as well as Transition_023_Test and Junction_00X serie.</t>
   </si>
 </sst>
 </file>
@@ -2020,10 +2020,10 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>103</c:v>
+                  <c:v>106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3064,8 +3064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3104,11 +3104,11 @@
       </c>
       <c r="G4" s="2">
         <f xml:space="preserve"> COUNTIF(C7:C113,"YES") + COUNTIF(C7:C113,"NEUTRAL")</f>
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4">
         <f xml:space="preserve"> (G4 * 100) / G3</f>
-        <v>97.196261682242991</v>
+        <v>99.065420560747668</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -3117,11 +3117,11 @@
       </c>
       <c r="G5" s="2">
         <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H5" s="4">
         <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>96.261682242990659</v>
+        <v>99.065420560747668</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -3410,7 +3410,7 @@
         <v>201</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3427,7 +3427,7 @@
         <v>201</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3444,7 +3444,7 @@
         <v>201</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3495,7 +3495,7 @@
         <v>201</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3503,7 +3503,7 @@
         <v>49</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>201</v>
@@ -3512,7 +3512,7 @@
         <v>201</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3529,7 +3529,7 @@
         <v>201</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3750,7 +3750,7 @@
         <v>201</v>
       </c>
       <c r="E42" s="22" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3784,7 +3784,7 @@
         <v>220</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
         <v>201</v>
       </c>
       <c r="E49" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
@@ -3880,13 +3880,13 @@
         <v>190</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E50" s="30" t="s">
-        <v>258</v>
+        <v>201</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3920,7 +3920,7 @@
         <v>201</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -3937,7 +3937,7 @@
         <v>202</v>
       </c>
       <c r="E53" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.25">
@@ -3954,7 +3954,7 @@
         <v>201</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -3971,7 +3971,7 @@
         <v>201</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4005,7 +4005,7 @@
         <v>201</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4022,7 +4022,7 @@
         <v>201</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4039,7 +4039,7 @@
         <v>201</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4056,7 +4056,7 @@
         <v>201</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4073,7 +4073,7 @@
         <v>201</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4090,7 +4090,7 @@
         <v>201</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4124,7 +4124,7 @@
         <v>201</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4141,7 +4141,7 @@
         <v>201</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -4158,7 +4158,7 @@
         <v>201</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4175,7 +4175,7 @@
         <v>201</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4192,7 +4192,7 @@
         <v>201</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4209,7 +4209,7 @@
         <v>201</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4226,7 +4226,7 @@
         <v>201</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4243,7 +4243,7 @@
         <v>201</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4260,7 +4260,7 @@
         <v>201</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4277,7 +4277,7 @@
         <v>201</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4294,7 +4294,7 @@
         <v>201</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,7 +4311,7 @@
         <v>201</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4481,7 +4481,7 @@
         <v>201</v>
       </c>
       <c r="E85" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4498,7 +4498,7 @@
         <v>201</v>
       </c>
       <c r="E86" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4515,7 +4515,7 @@
         <v>201</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4617,7 +4617,7 @@
         <v>201</v>
       </c>
       <c r="E93" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4634,7 +4634,7 @@
         <v>201</v>
       </c>
       <c r="E94" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4651,7 +4651,7 @@
         <v>201</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4668,7 +4668,7 @@
         <v>201</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4685,7 +4685,7 @@
         <v>201</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4702,7 +4702,7 @@
         <v>201</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4719,7 +4719,7 @@
         <v>201</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4736,7 +4736,7 @@
         <v>201</v>
       </c>
       <c r="E100" s="34" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4753,7 +4753,7 @@
         <v>201</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4770,7 +4770,7 @@
         <v>201</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4787,7 +4787,7 @@
         <v>201</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4821,7 +4821,7 @@
         <v>201</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4838,7 +4838,7 @@
         <v>201</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
         <v>201</v>
       </c>
       <c r="E107" s="27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4872,7 +4872,7 @@
         <v>201</v>
       </c>
       <c r="E108" s="22" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4883,13 +4883,13 @@
         <v>160</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E109" s="30" t="s">
-        <v>291</v>
+        <v>201</v>
+      </c>
+      <c r="E109" s="22" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4906,7 +4906,7 @@
         <v>201</v>
       </c>
       <c r="E110" s="22" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4923,7 +4923,7 @@
         <v>201</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4940,7 +4940,7 @@
         <v>201</v>
       </c>
       <c r="E112" s="22" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -4954,10 +4954,10 @@
         <v>201</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E113" s="22" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="336">
   <si>
     <t>id : String [1]</t>
   </si>
@@ -629,9 +629,6 @@
     <t>YES</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Requirements</t>
   </si>
   <si>
@@ -717,9 +714,6 @@
   </si>
   <si>
     <t>Choice 003  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Deferred 001  Test verifies this requirement</t>
   </si>
   <si>
     <t>Deferred 003  Test verifies this requirement</t>
@@ -777,29 +771,6 @@
 </t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">When an Event occurrence is detected and dispatched, it may result in one or more Transitions being enabled for firing. If no Transition is enabled </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>and the corresponding Event type is not in any of the deferrableTriggers lists of the active state configuration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>, the dispatched Event occurrence is discarded and the run-to-completion step is completed trivially. (p.330)</t>
-    </r>
-  </si>
-  <si>
     <t>Event 008 test verifies this requirement</t>
   </si>
   <si>
@@ -967,6 +938,18 @@
   </si>
   <si>
     <t>Junction003_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Tests History002_Test_C and History002_Test_D verify this requirement</t>
+  </si>
+  <si>
+    <t>History_002_Test_C verifies  this requirement</t>
+  </si>
+  <si>
+    <t>Tests Transition_023_Test, Entry002_Test_E and All the Junction_00X serie verify this requirement.</t>
+  </si>
+  <si>
+    <t>See all Event_00X_Test serie as well as Transition_023_Test and Junction_00X serie.</t>
   </si>
   <si>
     <r>
@@ -974,8 +957,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Rules described in req Entering_006 do not apply in the case where the most recently active substate is the FinalState</t>
     </r>
@@ -983,8 +966,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, or this is the first entry into this State. In the latter two cases, if a default shallow history Transition is defined originating from the shallowHistory Pseudostate, it will be taken. </t>
     </r>
@@ -993,8 +976,8 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>Otherwise, default State entry is applied</t>
     </r>
@@ -1002,30 +985,182 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FF000000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>. (p.324)</t>
     </r>
   </si>
   <si>
-    <t>Tests History002_Test_C and History002_Test_D verify this requirement</t>
-  </si>
-  <si>
-    <t>History_002_Test_C verifies  this requirement</t>
-  </si>
-  <si>
-    <t>Tests Transition_023_Test, Entry002_Test_E and All the Junction_00X serie verify this requirement.</t>
-  </si>
-  <si>
-    <t>See all Event_00X_Test serie as well as Transition_023_Test and Junction_00X serie.</t>
+    <r>
+      <t xml:space="preserve">When an Event occurrence is detected and dispatched, it may result in one or more Transitions being enabled for firing. If no Transition is enabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>and the corresponding Event type is not in any of the deferrableTriggers lists of the active state configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, the dispatched Event occurrence is discarded and the run-to-completion step is completed trivially. (p.330)</t>
+    </r>
+  </si>
+  <si>
+    <t>StaticAnalysis_001</t>
+  </si>
+  <si>
+    <t>StaticAnalysis_002</t>
+  </si>
+  <si>
+    <t>StaticAnalysis_003</t>
+  </si>
+  <si>
+    <t>It exists an exception to the postulate described in "StaticAnalysis_001". This exception occurs when a compound transition  passes through a Choice pseudo state. Conversely to the Junction pseudo state, the choice pseudo state has the guards of its outgoing transition that are evaluated during the execution (i.e., during the RTC step) so it is not possible to anticipate during the static analysis phase the impossibility to reach a valid state machine configuration. Indeed when the Choice is reached, all of its outgoing transitions might have a guard evaluating to false. In such situation the model is considered as being ill-formed.</t>
+  </si>
+  <si>
+    <t>DataPassing_001</t>
+  </si>
+  <si>
+    <t>Derived requirements (Annotated "PSSM proposals" in the specification)</t>
+  </si>
+  <si>
+    <t>DataPassing_002</t>
+  </si>
+  <si>
+    <t>DataPassing_003</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the triggering EventOccurrence is for a SignalEvent, then all executed Behaviors will have either one parameter or no Parameters. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If a Behavior has a Parameter, then the SignalInstance corresponding to the SignalEventOccurrence is passed into the Behavior Execution as the value of its Parameter.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the triggering EventOccurrence is for a CallEvent, then all executed Behaviors will have either no Parameters or signatures that conform or input-conform to the Operation being called.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If a Behavior has Parameters, then the values of the input Parameters of for the call are passed into the Behavior Execution as the values of the corresponding input Parameters of the Behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the triggering EventOccurrence is for a CallEvent, then all executed Behaviors will have either no Parameters or signatures that conform or input-conform to the Operation being called. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> If an effect, entry or exit Behavior is not just input-conforming, then the values of its output Parameters are passed out of its Behavior Execution on its completion as potential values for the output Parameters of the called Operation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>DataPassing_004</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If the triggering EventOccurrence is for a CallEvent, then all executed Behaviors will have either no Parameters or signatures that conform or input-conform to the Operation being called. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>If the CallEvent is for a synchronous call, then the call ends at the end of the triggered run-to-completion (RTC) step. If the called Operation has output Parameters, then the values returned for those parameters are those produced by the last effect, entry or exit Behavior to complete its execution during the RTC step. Since some or all of those Behaviors may execute concurrently, which one completes “last” may be only partially determined by the specified semantics. The values returned may legally be those produced any Behavior that produces potential output values and is the last to complete in any execution trace for the RTC step consistent with the specified StateMachine semantics.</t>
+    </r>
+  </si>
+  <si>
+    <t>To move from the current state machine configuration to the next state machine configuration it must exist a valid path between these two configurations. A valid path is materialized by a transition (possibly compound) that when fired ensure we reach the new state machine configuration. Such transition are evaluated statically (i.e., before the RTC step) in order to determine if guard(s) placed on that transition evaluate to true.</t>
+  </si>
+  <si>
+    <t>When an event is dispatched, that event can only initiate a RTC step if the transition(s) it enables materialize a valid path to a new state machine configuration. If this event only enable transition(s) that cannot bring the state machine to a valid configuration then this event is lost.</t>
+  </si>
+  <si>
+    <t>Deferred 005 Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Deferred_004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When the state that provoked the deferral of event occurrences leaves the state machine configuration then these event occurrences return to the event pool  of the state machine. They are placed in the event pool in the same order in which they have been deferred. These events will be dispatched after any existing completion event already available at the pool but before any other event (except completion events) already available at the pool.  </t>
+  </si>
+  <si>
+    <t>Deferred_005</t>
+  </si>
+  <si>
+    <t>Deferred_006</t>
+  </si>
+  <si>
+    <t>Deferred 006 - A Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Deferred 006 - B Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>A state is not allowed to defer an event occurrence for which a doActivity invoked from that state has already registered an event accepter. As an example, if S is dispatched and a state S1 can defer that event occurrence then S can only be deferred if S1 has not invoked a doActivity which has registered an event accepter for S.</t>
+  </si>
+  <si>
+    <t>A doActivity is allowed to accept directly from the deferred pool of the state machine an event occurrence deferred by the state from which it was invoked and for wich it is registering an event accepter. As an example, if S has been deferred by state S1 and the doActivity invoked from S1 registers an event accepter for S then S is accepted by the doActivity from the deferred event pool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deferred 001 Test verifies this requirement, Deferred 007 Test verifies this requirement for CallEvent </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,13 +1304,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -1183,22 +1312,47 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="40">
@@ -1424,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1606,6 +1760,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1652,103 +1910,152 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="10" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="10" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="11" xfId="35" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="22" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="8" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1796,7 +2103,505 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="64">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2020,10 +2825,10 @@
                   <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>106</c:v>
+                  <c:v>107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2039,12 +2844,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="220436552"/>
-        <c:axId val="220436944"/>
-        <c:axId val="221816488"/>
+        <c:axId val="207458832"/>
+        <c:axId val="162958808"/>
+        <c:axId val="206601256"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="220436552"/>
+        <c:axId val="207458832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2081,7 +2886,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220436944"/>
+        <c:crossAx val="162958808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2089,7 +2894,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220436944"/>
+        <c:axId val="162958808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2141,12 +2946,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220436552"/>
+        <c:crossAx val="207458832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="221816488"/>
+        <c:axId val="206601256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2182,7 +2987,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220436944"/>
+        <c:crossAx val="162958808"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3062,1931 +3867,2655 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G110" sqref="G110"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="141.85546875" style="5" customWidth="1"/>
-    <col min="3" max="4" width="14.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="49" style="16" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="141.85546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49" style="5" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="255" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>204</v>
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F3" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G3" s="2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="G3" s="10">
         <f xml:space="preserve"> ROWS(C7:C113)</f>
         <v>107</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="10">
         <f xml:space="preserve"> COUNTIF(C7:C113,"YES") + COUNTIF(C7:C113,"NEUTRAL")</f>
+        <v>107</v>
+      </c>
+      <c r="H4" s="12">
+        <f xml:space="preserve"> (G4 * 100) / G3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="G5" s="10">
+        <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
+        <v>107</v>
+      </c>
+      <c r="H5" s="12">
+        <f xml:space="preserve"> (G5 * 100) / G3</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+    </row>
+    <row r="9" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+    </row>
+    <row r="10" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+    </row>
+    <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+    </row>
+    <row r="12" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+    </row>
+    <row r="13" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+    </row>
+    <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+    </row>
+    <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+    </row>
+    <row r="16" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+    </row>
+    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+    </row>
+    <row r="18" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+    </row>
+    <row r="19" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+    </row>
+    <row r="20" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+    </row>
+    <row r="22" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+    </row>
+    <row r="23" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+    </row>
+    <row r="24" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+    </row>
+    <row r="25" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+    </row>
+    <row r="26" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+    </row>
+    <row r="27" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+    </row>
+    <row r="28" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+    </row>
+    <row r="29" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>294</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+    </row>
+    <row r="30" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E31" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+    </row>
+    <row r="32" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
+    <row r="33" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E33" s="32" t="s">
+        <v>240</v>
+      </c>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+    </row>
+    <row r="34" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+    </row>
+    <row r="35" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>241</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+    </row>
+    <row r="36" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="4">
-        <f xml:space="preserve"> (G4 * 100) / G3</f>
-        <v>99.065420560747668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="2">
-        <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
-        <v>106</v>
-      </c>
-      <c r="H5" s="4">
-        <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>99.065420560747668</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="17" t="s">
+      <c r="B36" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>242</v>
+      </c>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+    </row>
+    <row r="37" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E37" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+    </row>
+    <row r="38" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>243</v>
+      </c>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+    </row>
+    <row r="39" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>244</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+    </row>
+    <row r="40" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>245</v>
+      </c>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+    </row>
+    <row r="41" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>247</v>
+      </c>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>296</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+    </row>
+    <row r="43" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E43" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+    </row>
+    <row r="44" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+    </row>
+    <row r="45" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>310</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+    </row>
+    <row r="46" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E46" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+    </row>
+    <row r="47" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E47" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+    </row>
+    <row r="48" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+    </row>
+    <row r="49" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+    </row>
+    <row r="50" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+    </row>
+    <row r="51" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+    </row>
+    <row r="53" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="18" t="s">
+        <v>195</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E53" s="34" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+    </row>
+    <row r="54" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="23" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+    </row>
+    <row r="55" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E55" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+    </row>
+    <row r="56" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E56" s="27" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+    </row>
+    <row r="57" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+    </row>
+    <row r="58" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E58" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+    </row>
+    <row r="59" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59" s="21" t="s">
+        <v>261</v>
+      </c>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+    </row>
+    <row r="60" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E60" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+    </row>
+    <row r="61" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E61" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+    </row>
+    <row r="63" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E63" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+    </row>
+    <row r="64" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E64" s="21" t="s">
+        <v>265</v>
+      </c>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+    </row>
+    <row r="65" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E65" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+    </row>
+    <row r="66" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C66" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E66" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+    </row>
+    <row r="67" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+    </row>
+    <row r="68" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E68" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+    </row>
+    <row r="69" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="C69" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+    </row>
+    <row r="70" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E70" s="21" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+    </row>
+    <row r="71" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="B71" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E71" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+    </row>
+    <row r="72" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E72" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+    </row>
+    <row r="73" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+    </row>
+    <row r="74" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+    </row>
+    <row r="75" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E75" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+    </row>
+    <row r="76" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D76" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="32" t="s">
+        <v>218</v>
+      </c>
+      <c r="F76" s="22"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+    </row>
+    <row r="77" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F77" s="22"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+    </row>
+    <row r="78" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D78" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F78" s="22"/>
+      <c r="G78" s="22"/>
+      <c r="H78" s="22"/>
+    </row>
+    <row r="79" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D79" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E79" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F79" s="22"/>
+      <c r="G79" s="22"/>
+      <c r="H79" s="22"/>
+    </row>
+    <row r="80" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C80" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D80" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E80" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F80" s="22"/>
+      <c r="G80" s="22"/>
+      <c r="H80" s="22"/>
+    </row>
+    <row r="81" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D81" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E81" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="F81" s="22"/>
+      <c r="G81" s="22"/>
+      <c r="H81" s="22"/>
+    </row>
+    <row r="82" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D82" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E82" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F82" s="22"/>
+      <c r="G82" s="22"/>
+      <c r="H82" s="22"/>
+    </row>
+    <row r="83" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D83" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E83" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+    </row>
+    <row r="84" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D84" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+    </row>
+    <row r="85" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="C85" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D85" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E85" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22"/>
+    </row>
+    <row r="86" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C86" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D86" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E86" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="F86" s="22"/>
+      <c r="G86" s="22"/>
+      <c r="H86" s="22"/>
+    </row>
+    <row r="87" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B87" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="C87" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D87" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F87" s="22"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+    </row>
+    <row r="88" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D88" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E88" s="36" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>222</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="21" t="s">
+      <c r="F88" s="22"/>
+      <c r="G88" s="22"/>
+      <c r="H88" s="22"/>
+    </row>
+    <row r="89" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D89" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>211</v>
+      </c>
+      <c r="F89" s="22"/>
+      <c r="G89" s="22"/>
+      <c r="H89" s="22"/>
+    </row>
+    <row r="90" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C90" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D90" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E90" s="33" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="22" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="22" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="22" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="21" t="s">
+      <c r="F90" s="22"/>
+      <c r="G90" s="22"/>
+      <c r="H90" s="22"/>
+    </row>
+    <row r="91" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B91" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C91" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D91" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F91" s="22"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="22"/>
+    </row>
+    <row r="92" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C92" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D92" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E92" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="F92" s="22"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="22"/>
+    </row>
+    <row r="93" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E93" s="32" t="s">
+        <v>272</v>
+      </c>
+      <c r="F93" s="22"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22"/>
+    </row>
+    <row r="94" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E94" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" s="22"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="22"/>
+    </row>
+    <row r="95" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D95" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="F95" s="22"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="22"/>
+    </row>
+    <row r="96" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="C96" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="F96" s="22"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="22"/>
+    </row>
+    <row r="97" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="F97" s="22"/>
+      <c r="G97" s="22"/>
+      <c r="H97" s="22"/>
+    </row>
+    <row r="98" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C98" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D98" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" s="22"/>
+      <c r="G98" s="22"/>
+      <c r="H98" s="22"/>
+    </row>
+    <row r="99" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E99" s="32" t="s">
+        <v>278</v>
+      </c>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+    </row>
+    <row r="100" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="B100" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="C100" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E100" s="39" t="s">
+        <v>279</v>
+      </c>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+    </row>
+    <row r="101" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B101" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="C101" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D101" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22"/>
+    </row>
+    <row r="102" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E102" s="32" t="s">
+        <v>281</v>
+      </c>
+      <c r="F102" s="22"/>
+      <c r="G102" s="22"/>
+      <c r="H102" s="22"/>
+    </row>
+    <row r="103" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="C103" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D103" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="F103" s="22"/>
+      <c r="G103" s="22"/>
+      <c r="H103" s="22"/>
+    </row>
+    <row r="104" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C104" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D104" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="E104" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="F104" s="22"/>
+      <c r="G104" s="22"/>
+      <c r="H104" s="22"/>
+    </row>
+    <row r="105" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="C105" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D105" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>283</v>
+      </c>
+      <c r="F105" s="22"/>
+      <c r="G105" s="22"/>
+      <c r="H105" s="22"/>
+    </row>
+    <row r="106" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>284</v>
+      </c>
+      <c r="F106" s="22"/>
+      <c r="G106" s="22"/>
+      <c r="H106" s="22"/>
+    </row>
+    <row r="107" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="B107" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D107" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E107" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F107" s="22"/>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22"/>
+    </row>
+    <row r="108" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="B108" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C108" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D108" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E108" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+    </row>
+    <row r="109" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B109" s="24" t="s">
+        <v>160</v>
+      </c>
+      <c r="C109" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D109" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E109" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F109" s="22"/>
+      <c r="G109" s="22"/>
+      <c r="H109" s="22"/>
+    </row>
+    <row r="110" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C110" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D110" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="F110" s="22"/>
+      <c r="G110" s="22"/>
+      <c r="H110" s="22"/>
+    </row>
+    <row r="111" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B111" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="C111" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D111" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="F111" s="22"/>
+      <c r="G111" s="22"/>
+      <c r="H111" s="22"/>
+    </row>
+    <row r="112" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="B112" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="C112" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D112" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>289</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="22"/>
+      <c r="H112" s="22"/>
+    </row>
+    <row r="113" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B113" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E113" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="F113" s="22"/>
+      <c r="G113" s="22"/>
+      <c r="H113" s="22"/>
+    </row>
+    <row r="114" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="47" t="s">
+        <v>316</v>
+      </c>
+      <c r="B114" s="48"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="22"/>
+      <c r="G114" s="22"/>
+      <c r="H114" s="22"/>
+    </row>
+    <row r="115" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="43" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C115" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D115" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E115" s="46"/>
+      <c r="F115" s="22"/>
+      <c r="G115" s="22"/>
+      <c r="H115" s="22"/>
+    </row>
+    <row r="116" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>202</v>
-      </c>
-      <c r="E53" s="30" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E63" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E77" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E78" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E79" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D80" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E80" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D81" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D83" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E83" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D84" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E84" s="32" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" s="22" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D87" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="22" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D88" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E88" s="33" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E89" s="22" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E90" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E91" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C92" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E92" s="31" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B93" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C93" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="C94" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D94" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D98" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C99" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="B100" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C100" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E100" s="34" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C101" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D101" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B102" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="C102" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D102" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" s="22" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B103" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="C103" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="22" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="C104" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="E104" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D105" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E105" s="22" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C106" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D106" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E106" s="22" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B107" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C107" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D107" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E107" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="B108" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E108" s="22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="C109" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E109" s="22" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C110" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B111" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="C111" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D111" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E111" s="22" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D112" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C113" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="D113" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>293</v>
-      </c>
-    </row>
+      <c r="B116" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C116" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D116" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E116" s="32"/>
+    </row>
+    <row r="117" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="43" t="s">
+        <v>313</v>
+      </c>
+      <c r="B117" s="44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C117" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D117" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E117" s="46"/>
+    </row>
+    <row r="118" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="C118" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D118" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E118" s="32"/>
+    </row>
+    <row r="119" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="B119" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C119" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D119" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E119" s="46"/>
+    </row>
+    <row r="120" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="B120" s="42" t="s">
+        <v>321</v>
+      </c>
+      <c r="C120" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D120" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E120" s="32"/>
+    </row>
+    <row r="121" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="43" t="s">
+        <v>322</v>
+      </c>
+      <c r="B121" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C121" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" s="45" t="s">
+        <v>201</v>
+      </c>
+      <c r="E121" s="46"/>
+    </row>
+    <row r="122" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" s="42" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E122" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D123" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E123" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="B124" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="D124" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="E124" s="32" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState ref="A2:G108">
     <sortCondition ref="A1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A114:E114"/>
+  </mergeCells>
   <conditionalFormatting sqref="C7:C113">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:D113">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:D113">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C115:D115">
+    <cfRule type="cellIs" dxfId="59" priority="43" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="44" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D115">
+    <cfRule type="cellIs" dxfId="56" priority="45" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D116">
+    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116:D116">
+    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117:D117">
+    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118:D118">
+    <cfRule type="cellIs" dxfId="43" priority="31" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D119">
+    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D118">
+    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120:D120">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121:D121">
+    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D121">
+    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122:D122">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D122">
+    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123:D123">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D123">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124:D124">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C114:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C125:C1048576">
       <formula1>"OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D113">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D113 C115:D124">
       <formula1>"YES,NO,NEUTRAL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin64\home\JT605650\repositories\github\PSSM\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JT605650\Documents\2015\projets\PSSM\specification\revised-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,13 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="336">
-  <si>
-    <t>id : String [1]</t>
-  </si>
-  <si>
-    <t>text : String [1]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="359">
   <si>
     <t>Event_001</t>
   </si>
@@ -299,9 +293,6 @@
     <t>a Transition terminating on this Pseudostate implies restoring the Region to that same state configuration, but with all the semantics of entering a State (see the Subclause describing State entry). The entry Behaviors of all States in the restored state configuration are performed in the appropriate order starting with the outermost State. (p.326)</t>
   </si>
   <si>
-    <t>represents the most recent active substate of its containing Region, but not the substates of that substate. A Transition terminating on this Pseudostate implies restoring the Region to that substate with all the semantics of entering a State. A single outgoing Transition from this Pseudostate may be defined terminating on a substate of the composite State. This substate is the default shallow history state of the composite State. (p.326)</t>
-  </si>
-  <si>
     <t>Join_001</t>
   </si>
   <si>
@@ -647,24 +638,15 @@
     <t>Transitions terminating on an exit point within any Region of a StateMachine referenced by a submachine State implies exiting of this  submachine State (with execution of its associated exit Behavior). (p.327)</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>Outside the scope of PSSM</t>
   </si>
   <si>
     <t>As fUML is agnostic of time and PSSM relies ont it, the duration of a transition traversal is considered as being "zero" time.</t>
   </si>
   <si>
-    <t>There is no dedicated test for requirement "Transition003" but typically test "Entering011" shows the case of transition executed as part of a more complex compound transitions.</t>
-  </si>
-  <si>
     <t>Cannot be tested by the test suite</t>
   </si>
   <si>
-    <t>Exit001 test verifies this requirement</t>
-  </si>
-  <si>
     <t>Cannot be tested by the test suite. Information that is materialized within the runtime</t>
   </si>
   <si>
@@ -677,9 +659,6 @@
     <t>Junction_003</t>
   </si>
   <si>
-    <t xml:space="preserve">This is actually shown in test Fork_001 and Fork_002 as well as in other tests located in the "Entering" section </t>
-  </si>
-  <si>
     <t>NEUTRAL</t>
   </si>
   <si>
@@ -695,215 +674,20 @@
     <t>A State may specify a set of Event types that may be deferred in that State. This means that Event occurrences of those types will not be dispatched as long as that State remains active. Instead, these Event occurrences remain in the event pool until a state configuration is reached where these Event types are no longer deferred. (p.323)</t>
   </si>
   <si>
-    <t>Behavior 001  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Behavior 002  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Behavior 003 - A and B Tests verifies this requirement</t>
-  </si>
-  <si>
-    <t>Behavior 004  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Choice 001  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Choice 002  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Choice 003  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Deferred 003  Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Deferred 002 Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entry002-C test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entry002-D test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entering 004 test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entering 005 test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entering 009 test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entering 010 test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Entering 011 test verifies this requirement. Note that is is something that is also shwown in Transition 017 test.</t>
-  </si>
-  <si>
     <t>Fork 001 Test shows support for this requirement.</t>
   </si>
   <si>
-    <t>Behavior003-A and B Tests shows support for this requirement.</t>
-  </si>
-  <si>
-    <t>Entry 002 tests shows support for this requirement.</t>
-  </si>
-  <si>
-    <t>Event 001 test shows support for this requirement.</t>
-  </si>
-  <si>
-    <t>Event 002 test shows support for this requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This is something that can be observed in several existing tests of the PSSM test suite. As an example "Exiting001", "Entering011" demonstrates execution of a step that leads to fire a number of transition. This is considered as being verified even though there is not test dedicated to requirement "Event003" </t>
-  </si>
-  <si>
     <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. The set of Transitions that will fire are the Transitions in the Regions of the current state configuration that satisfy the following conditions: All Transitions in the set are enabled. There are no conflicting Transitions within the set. There is no Transition outside the set that has higher priority than a Transition in the set (that is, enabled Transitions with highest priorities are in the set while conflicting Transitions with lower priorities are left out).</t>
-  </si>
-  <si>
-    <t>Event 015 and Event 016 shows support for this requirement</t>
   </si>
   <si>
     <t xml:space="preserve">This does not need to be tested since it ensure by fUML semantics that PSSM does not change. Nevertheless such one by on e disptaching can be observed in all presented tests.
 </t>
   </si>
   <si>
-    <t>Event 008 test verifies this requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Event 009 test verifies this requirement but Event 016 -B test highlights some limitations </t>
-  </si>
-  <si>
     <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. (p.330)</t>
   </si>
   <si>
-    <t>Event 010 test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Event_009 shows support of this requirement</t>
-  </si>
-  <si>
-    <t>Event 015 test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Event 016 - A test verifies this requirement.</t>
-  </si>
-  <si>
     <t>There is no test to demonstrate such support for transitions chained in a compound transition.</t>
-  </si>
-  <si>
-    <t>TransitionSelectionAlgorithmTest and Event 018  shows support for this requirement.</t>
-  </si>
-  <si>
-    <t>Exit 001 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Exit 002 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Exiting 001 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Exiting 002 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Exiting 003 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Exiting 004 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Exiting 005 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Final 001 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Join 001 and Join 002 tests verify this requirement.</t>
-  </si>
-  <si>
-    <t>Entering 011 and Entry002-D tests show support for this requirement.</t>
-  </si>
-  <si>
-    <t>Final 001  and Entering 011 show support for this requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terminate 001 and Terminate 003 tests verify this requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terminate 002 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transition 001 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Transition 007 test verifies this requirement.</t>
-  </si>
-  <si>
-    <t>Transition 007 and Event 016 A tests show support for this requirement.</t>
-  </si>
-  <si>
-    <t>Transition 007 test show support for this requirement.</t>
-  </si>
-  <si>
-    <t>Transition 010 and Transition 011 - C test show support for this requirement.</t>
-  </si>
-  <si>
-    <t>Transition 011 - A, B, D and E tests show support for this requirement.</t>
-  </si>
-  <si>
-    <t>Behavior 004 test shows support for this requirement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Exiting 003 test shows support for this requirement</t>
-  </si>
-  <si>
-    <t>Transition 011 - A shows support for this requirement</t>
-  </si>
-  <si>
-    <t>Transition 015 verifies this requirement</t>
-  </si>
-  <si>
-    <t>Transition 016 verifies this requirement</t>
-  </si>
-  <si>
-    <t>Transition 017 verifies this requirement</t>
-  </si>
-  <si>
-    <t>Transition 020 verifies this requirement</t>
-  </si>
-  <si>
-    <t>Transition 019 verifies this requirement</t>
-  </si>
-  <si>
-    <t>Transition 022 verifies this requirement</t>
-  </si>
-  <si>
-    <t>Transition017  and Final001 shows support of this requirement.</t>
-  </si>
-  <si>
-    <t>Choice_001, Choice_002 and Choice_003 show support for this requirement.</t>
-  </si>
-  <si>
-    <t>A number of tests use this. Tests such as Transition 007 and Transition 017 shows support for this requirement.</t>
-  </si>
-  <si>
-    <t>Entering 011 and Transition 017 shows support for this requirement.</t>
-  </si>
-  <si>
-    <t>Choice case is tested while the join case remain not tested</t>
-  </si>
-  <si>
-    <t>History001_Test_A verifies this requirement</t>
-  </si>
-  <si>
-    <t>History_002_Test_A verifies  this requirement</t>
-  </si>
-  <si>
-    <t>Behavior003-A and Behavior003-B verifies this requirement</t>
   </si>
   <si>
     <t>Duplication of Entering001</t>
@@ -911,45 +695,6 @@
   <si>
     <t xml:space="preserve">This does not need to be tested since it ensure by fUML semantics that PSSM does not change. Nevertheless such one by on e disptaching can be observed in all presented tests cases.
 </t>
-  </si>
-  <si>
-    <t>State-machines can respond to signal, event, call event and completion event which event type supported in PSSM context. Support for this requirement is demonstrated by Event017-X and Event019-X test series.</t>
-  </si>
-  <si>
-    <t>Event_019_X serie verifies this requirement</t>
-  </si>
-  <si>
-    <t>History001_Test_A and History001_Test_B verify this requirement</t>
-  </si>
-  <si>
-    <t>History001_Test_B (deep history)verify this requirement. Note: Add an additional test for shallow history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">History001_Test_A and History001_Test_B verify this requirement </t>
-  </si>
-  <si>
-    <t xml:space="preserve">History002_Test_A and History002_Test_B verify this requirement </t>
-  </si>
-  <si>
-    <t>Junction00X test serie verifies this requirement</t>
-  </si>
-  <si>
-    <t>Junction003_Test and Junction004_Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Junction003_Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Tests History002_Test_C and History002_Test_D verify this requirement</t>
-  </si>
-  <si>
-    <t>History_002_Test_C verifies  this requirement</t>
-  </si>
-  <si>
-    <t>Tests Transition_023_Test, Entry002_Test_E and All the Junction_00X serie verify this requirement.</t>
-  </si>
-  <si>
-    <t>See all Event_00X_Test serie as well as Transition_023_Test and Junction_00X serie.</t>
   </si>
   <si>
     <r>
@@ -1153,7 +898,830 @@
     <t>A doActivity is allowed to accept directly from the deferred pool of the state machine an event occurrence deferred by the state from which it was invoked and for wich it is registering an event accepter. As an example, if S has been deferred by state S1 and the doActivity invoked from S1 registers an event accepter for S then S is accepted by the doActivity from the deferred event pool.</t>
   </si>
   <si>
-    <t xml:space="preserve">Deferred 001 Test verifies this requirement, Deferred 007 Test verifies this requirement for CallEvent </t>
+    <t>A specialized StateMachine will have all the elements of the general StateMachine, and it may include additional elements. Regions may be added. Inherited Regions may be redefined by extension: States and Vertices are inherited, and States and Transitions of the Regions of the StateMachine may be redefined.</t>
+  </si>
+  <si>
+    <t>Redefinition001_Test, Redefinition002_Test and Redefinition003_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>A state can have entry, doActivity and exit behaviors. If the redefining state does not declare one of these behavior then this behavior if specified in the redefined state (direct or indirect) is inherited by the redefining state.</t>
+  </si>
+  <si>
+    <t>The set of deferrable trigger of a redefining state is the set of deferrable triggers declared by that state plus the set of deferrable triggers declared in redefined (directcly or indirectly) states.</t>
+  </si>
+  <si>
+    <t>The set of trigger owned by a redefining transition is the set of trigger delcared by that transition plus the set of trigger defined in redefined (directly or indirectly) transition.</t>
+  </si>
+  <si>
+    <t>A transition can have an effect behavior. If a redefining transition does not declare an effect behavior then if a redefined (direct or indirect) transition declares an effect, this latter is inherited by the redefining transition.</t>
+  </si>
+  <si>
+    <t>Redefinition006_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Redefinition004_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Redefinition005_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Redefinition002_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A transition can have an effect behavior. If a redefining transition declares an effect behavior, then this behavior is used (i.e. it replaces if any an effect specified by a redefined transition). </t>
+  </si>
+  <si>
+    <t>A state can have entry, doActivity and exit behaviors. If the redefining state has one of this behavior then this latter is used (i.e. it replaces if any the behavior that may have been specified by a redefined state)</t>
+  </si>
+  <si>
+    <t>Redefinition003_Test verifies this requirement</t>
+  </si>
+  <si>
+    <t>Redefinition_002</t>
+  </si>
+  <si>
+    <t>Redefinition_003</t>
+  </si>
+  <si>
+    <t>Redefinition_004</t>
+  </si>
+  <si>
+    <t>Redefinition_005</t>
+  </si>
+  <si>
+    <t>Redefinition_006</t>
+  </si>
+  <si>
+    <t>Redefinition_007</t>
+  </si>
+  <si>
+    <t>Redefinition_001</t>
+  </si>
+  <si>
+    <t>A simple State may be redefined (extended) to become a composite State by one or more Regions. A composite State
+can be redefined (extended) by: adding new Regions, adding Vertices and Transitions to inherited Regions, adding entry/exit/doActivity Behaviors, if the general State does not have any, redefining States and Transitions.</t>
+  </si>
+  <si>
+    <t>Redefinition_008</t>
+  </si>
+  <si>
+    <t>A ShallowHistory pseudostate represents the most recent active substate of its containing Region, but not the substates of that substate. A Transition terminating on this Pseudostate implies restoring the Region to that substate with all the semantics of entering a State. A single outgoing Transition from this Pseudostate may be defined terminating on a substate of the composite State. This substate is the default shallow history state of the composite State. (p.326)</t>
+  </si>
+  <si>
+    <t>Behavior 001</t>
+  </si>
+  <si>
+    <t>Behavior 002</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Outside PSSM scope</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Choice 002 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(The choice is made using the First choice strategy)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Choice 001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Guards are not evaluated during static analysis phase)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Behavior 004 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Firing an internal transition means the source is not exited and the target is not entered. Hence the running doActivity is not aborted)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Behavior 003 - A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(if the state is exited while the doActivity is not done, then it is aborted)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Behavior 003 - B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Upon the doActivity completion, the state completes)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying Test ID / Notes </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Choice 003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(If all guards of outgoing transition evaluate to true and it exists an else transition, then this transition is fired)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Transition 007 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(A transition can react to multiple event occurrences).</t>
+    </r>
+  </si>
+  <si>
+    <t>Transition 001</t>
+  </si>
+  <si>
+    <t>Transition 010
+Transition 007
+Transition 011 C (particular usage)</t>
+  </si>
+  <si>
+    <t>Transition 011 - A 
+Transition 011 - B
+Transition 011 - D
+Transition 011 - E</t>
+  </si>
+  <si>
+    <t>No dedicated tests.
+Nevertheless support for this requiremenent is shown in  Transition 017, Transition 023 and Junction 004.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requiremenent is shown in  Transition 007, Event 016 A and Transition 023.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requiremenent is shown in  Transition 007.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requiremenent is shown in Behavior 004.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requiremenent is shown in Exiting 001 and Exiting 003.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requirement is shown in Transition 011 A and Transition 011 D.</t>
+  </si>
+  <si>
+    <t>Transition 015</t>
+  </si>
+  <si>
+    <t>Transition 016</t>
+  </si>
+  <si>
+    <t>Transition 017</t>
+  </si>
+  <si>
+    <t>Transition 019.
+Note that a similar behavior can be observed in Transition 017.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Final 001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(provides a test for this at state machine level).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note that transition 017 provides a test for this at composite state level.</t>
+    </r>
+  </si>
+  <si>
+    <t>Transition 022.</t>
+  </si>
+  <si>
+    <t>Transition 020.</t>
+  </si>
+  <si>
+    <t>Transition_023.
+Note that Entry002_Test_E and all the Junction_00X serie also show support for this requirement.</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Transition 017.
+Event 016 B.
+Entering 011.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requirement is shown inTransition 007, Transition 017 and Choice 002.</t>
+  </si>
+  <si>
+    <t>Event 001.</t>
+  </si>
+  <si>
+    <t>Event 002.
+Note that Event 019 B, Event 16 B and Junction 006 also show support for this requirement.</t>
+  </si>
+  <si>
+    <t>No dedicated tests.
+Nevertheless support for this requiremenent is shown in  Event 019 B, Event 16 B, Exit 001 and .</t>
+  </si>
+  <si>
+    <t>Event 015 (with completion events).
+Event 016 B (with regular events).</t>
+  </si>
+  <si>
+    <t>Event 017 X serie (for signal events)
+Event 019 X serie (for call events)</t>
+  </si>
+  <si>
+    <t>Event 008.</t>
+  </si>
+  <si>
+    <t>Event 009.
+Note that Event 016 B also demonstrates support for this requirement.</t>
+  </si>
+  <si>
+    <t>Event 010.</t>
+  </si>
+  <si>
+    <t>Event_009.
+Note that Transition 017, Final 001 and Event 016 B also demonstrates support for this requirement.</t>
+  </si>
+  <si>
+    <t>Event 017 A (for signal event)
+Event 019 E (for cal event)
+Junction 003 (for static analysis)
+Transition 023 (for static analysis)</t>
+  </si>
+  <si>
+    <t>Event 015.</t>
+  </si>
+  <si>
+    <t>Event_019 A.
+Event_019 B.
+Event_019 C.
+Event_019 D.
+Event_019 E.
+Event_019 F.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Event 016 A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Simple conflicting transitions).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Event 016 B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(conflicting transitions and orthogonal regions).</t>
+    </r>
+  </si>
+  <si>
+    <t>Event 018.
+TransitionSelectionAlgorithm.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Behavior 003 A.
+Behavior 003 B.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note: for the moment no test shows concurrency with behaviors placed on substates.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">No dedicated test.
+Nevertheless History 002 A shows support for this requirement. </t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless History 001 A shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Entering 004.</t>
+  </si>
+  <si>
+    <t>Entering 005.
+Note that also Entering 010 and TransitionAlgorithmTest also show support for this requirement.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History 002 C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Default entry since it is the first entry to the the region).</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+History002 D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Usage of the default transition since the last entered state was a final state).</t>
+    </r>
+  </si>
+  <si>
+    <t>Entering 009.
+Note that TransitionAlgorithmTest also shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Entering 010.
+Note that Transition 017 and Event 016 B also show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Entering 011.
+Note that Transition 017 and Event 016 B also show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Exiting 001.</t>
+  </si>
+  <si>
+    <t>Exiting 002.</t>
+  </si>
+  <si>
+    <t>Exiting 003.</t>
+  </si>
+  <si>
+    <t>Exiting 004.</t>
+  </si>
+  <si>
+    <t>Exiting 005.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless Entry 002 C shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless Entry 002 D shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless Exit 001 shows support for this requirement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dedicated test.
+Nevertheless Entry 002 C and Entry 002 F show support for this requirement. </t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless Entry 002 A shows support for this requirement.</t>
+  </si>
+  <si>
+    <t>Exit 001.</t>
+  </si>
+  <si>
+    <t>Exit 002..</t>
+  </si>
+  <si>
+    <t>Terminate 001.
+Terminate 003.</t>
+  </si>
+  <si>
+    <t>Terminate 002.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deferred 001 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(deferral of signal event)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Deferred 007 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(deferral of call event)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Note that Deferred 004 A and Deferred 004 B also show support of this requirement when composite states are involved.</t>
+    </r>
+  </si>
+  <si>
+    <t>Deferred 002.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Deferred 003.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Note: the test must be improved (i.e., suppress usage of AnotherSignal which does not add value to the test).</t>
+    </r>
+  </si>
+  <si>
+    <t>Final 001.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History 001 A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(restoration process when it exists an history for the region)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+History 001 B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(entry using the default transition plus restoration process)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History 001 B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(usage of default transition with deep history pseudostate)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+History 002 D </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(usage of default transition with shallow history pseudostate)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History 002 C </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(shown for shallow history but shared with deep history)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">History 002 A </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(restoration process for shallow history)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+History 002 B </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(restoration process for shallow history when orthogonal region are involved)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Join 001.
+Join 002 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(check in a nested context)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Choice 002 (for the choice).
+Join 003 (for the join).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Junction002 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(The compound transition is disabled since no valid path can be found.)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Junction 003 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(some paths are disabled)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+Junction 004 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(orthogonal regions and path evaluation)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Junction003.</t>
+  </si>
+  <si>
+    <t>Entering 011.
+Entry 002 D.</t>
+  </si>
+  <si>
+    <t>Final 001.
+Entering 011.
+Note that also Transition 017 and Event 016 B show support for this requirement.</t>
+  </si>
+  <si>
+    <t>Entry 002 B.
+Fork 001.
+Fork 002.
+Entering 010.</t>
   </si>
 </sst>
 </file>
@@ -1349,6 +1917,7 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
@@ -1910,7 +2479,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1924,9 +2493,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1935,9 +2501,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1952,9 +2515,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1965,9 +2525,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1982,9 +2539,6 @@
     <xf numFmtId="0" fontId="24" fillId="35" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="36" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1997,32 +2551,11 @@
     <xf numFmtId="0" fontId="24" fillId="38" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="37" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="37" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2039,8 +2572,11 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="13" borderId="21" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2051,11 +2587,47 @@
     <xf numFmtId="0" fontId="22" fillId="13" borderId="15" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="37" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" xfId="16" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="18" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -2103,14 +2675,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Vérification" xfId="14" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="64">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="54">
     <dxf>
       <fill>
         <patternFill>
@@ -2137,49 +2702,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2219,49 +2743,8 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2301,6 +2784,30 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -2320,23 +2827,6 @@
       <font>
         <color rgb="FF9C0006"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
@@ -2822,13 +3312,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>107</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>107</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>107</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2844,12 +3334,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="207458832"/>
-        <c:axId val="162958808"/>
-        <c:axId val="206601256"/>
+        <c:axId val="200218408"/>
+        <c:axId val="200680600"/>
+        <c:axId val="200688160"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="207458832"/>
+        <c:axId val="200218408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2886,7 +3376,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162958808"/>
+        <c:crossAx val="200680600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2894,7 +3384,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="162958808"/>
+        <c:axId val="200680600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -2946,12 +3436,12 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="207458832"/>
+        <c:crossAx val="200218408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="206601256"/>
+        <c:axId val="200688160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +3477,7 @@
             <a:endParaRPr lang="fr-FR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162958808"/>
+        <c:crossAx val="200680600"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3867,10 +4357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3878,2644 +4368,2809 @@
     <col min="1" max="1" width="33.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="141.85546875" style="2" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49" style="5" customWidth="1"/>
+    <col min="5" max="5" width="56.42578125" style="39" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="255" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>203</v>
+      <c r="A2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="G3" s="10">
-        <f xml:space="preserve"> ROWS(C7:C113)</f>
-        <v>107</v>
-      </c>
-      <c r="H3" s="11"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" s="8">
+        <f xml:space="preserve"> ROWS(C7:C115)</f>
+        <v>109</v>
+      </c>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G4" s="10">
-        <f xml:space="preserve"> COUNTIF(C7:C113,"YES") + COUNTIF(C7:C113,"NEUTRAL")</f>
-        <v>107</v>
-      </c>
-      <c r="H4" s="12">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="8">
+        <f xml:space="preserve"> COUNTIF(C7:C115,"YES") + COUNTIF(C7:C115,"NEUTRAL")</f>
+        <v>109</v>
+      </c>
+      <c r="H4" s="10">
         <f xml:space="preserve"> (G4 * 100) / G3</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G5" s="10">
-        <f xml:space="preserve"> COUNTIF(D7:D113,"YES") + COUNTIF(D7:D113,"NEUTRAL")</f>
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="8">
+        <f xml:space="preserve"> COUNTIF(D7:D115,"YES") + COUNTIF(D7:D115,"NEUTRAL")</f>
+        <v>108</v>
+      </c>
+      <c r="H5" s="10">
+        <f xml:space="preserve"> (G5 * 100) / G3</f>
+        <v>99.082568807339456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>282</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+    </row>
+    <row r="7" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E12" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>277</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="1:8" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E19" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>335</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E22" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E23" s="41" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>321</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D25" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E28" s="41" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+    </row>
+    <row r="29" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="52" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+    </row>
+    <row r="30" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+    </row>
+    <row r="32" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>328</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+    </row>
+    <row r="33" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+    </row>
+    <row r="34" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+    </row>
+    <row r="35" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+    </row>
+    <row r="36" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>338</v>
+      </c>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+    </row>
+    <row r="37" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+    </row>
+    <row r="38" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+    </row>
+    <row r="39" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>167</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>307</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+    </row>
+    <row r="40" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+    </row>
+    <row r="41" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+    </row>
+    <row r="42" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>310</v>
+      </c>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+    </row>
+    <row r="43" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E43" s="52" t="s">
+        <v>219</v>
+      </c>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+    </row>
+    <row r="44" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+    </row>
+    <row r="45" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D45" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+    </row>
+    <row r="46" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D46" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E46" s="41" t="s">
+        <v>312</v>
+      </c>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+    </row>
+    <row r="47" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E47" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+    </row>
+    <row r="48" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E48" s="43" t="s">
+        <v>314</v>
+      </c>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+    </row>
+    <row r="49" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="43" t="s">
+        <v>317</v>
+      </c>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+    </row>
+    <row r="50" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="41" t="s">
+        <v>315</v>
+      </c>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+    </row>
+    <row r="51" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E51" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+    </row>
+    <row r="52" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D52" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+    </row>
+    <row r="53" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53" s="45" t="s">
+        <v>221</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+    </row>
+    <row r="54" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D54" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E54" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+    </row>
+    <row r="55" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D55" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+    </row>
+    <row r="56" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D56" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E56" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+    </row>
+    <row r="57" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="12">
-        <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="16" t="s">
+      <c r="C57" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E57" s="41" t="s">
+        <v>340</v>
+      </c>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+    </row>
+    <row r="58" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C58" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D58" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E58" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+    </row>
+    <row r="59" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E59" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+    </row>
+    <row r="60" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E60" s="41" t="s">
+        <v>331</v>
+      </c>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+    </row>
+    <row r="61" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+    </row>
+    <row r="62" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+    </row>
+    <row r="63" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+    </row>
+    <row r="64" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+    </row>
+    <row r="65" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C65" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D65" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+    </row>
+    <row r="66" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D66" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E66" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+    </row>
+    <row r="67" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E67" s="41" t="s">
+        <v>349</v>
+      </c>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+    </row>
+    <row r="68" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E68" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+    </row>
+    <row r="69" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+    </row>
+    <row r="70" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E70" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+    </row>
+    <row r="71" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C71" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E71" s="41" t="s">
+        <v>353</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E72" s="41" t="s">
+        <v>354</v>
+      </c>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C73" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E73" s="41" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B75" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="C75" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E75" s="41" t="s">
+        <v>251</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E76" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E77" s="43" t="s">
+        <v>356</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E78" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="79" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D79" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+    </row>
+    <row r="80" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E80" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+    </row>
+    <row r="81" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D81" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E81" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+    </row>
+    <row r="82" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E82" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+    </row>
+    <row r="83" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D83" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E83" s="44" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+    </row>
+    <row r="84" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E84" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+    </row>
+    <row r="85" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E85" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+    </row>
+    <row r="86" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="C86" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" s="46" t="s">
+        <v>205</v>
+      </c>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+    </row>
+    <row r="87" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="43" t="s">
+        <v>341</v>
+      </c>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+    </row>
+    <row r="88" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E88" s="43" t="s">
+        <v>342</v>
+      </c>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+    </row>
+    <row r="89" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E89" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+    </row>
+    <row r="90" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C90" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E90" s="47" t="s">
+        <v>206</v>
+      </c>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+    </row>
+    <row r="91" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C91" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E91" s="43" t="s">
+        <v>288</v>
+      </c>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+    </row>
+    <row r="92" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D92" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E92" s="44" t="s">
         <v>208</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-    </row>
-    <row r="8" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-    </row>
-    <row r="9" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-    </row>
-    <row r="11" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-    </row>
-    <row r="12" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>230</v>
-      </c>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-    </row>
-    <row r="15" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-    </row>
-    <row r="16" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>223</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-    </row>
-    <row r="17" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-    </row>
-    <row r="18" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-    </row>
-    <row r="19" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-    </row>
-    <row r="20" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D20" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-    </row>
-    <row r="21" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-    </row>
-    <row r="22" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-    </row>
-    <row r="23" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D23" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>293</v>
-      </c>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-    </row>
-    <row r="26" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-    </row>
-    <row r="27" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-    </row>
-    <row r="28" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>305</v>
-      </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-    </row>
-    <row r="29" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-    </row>
-    <row r="30" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-    </row>
-    <row r="31" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E31" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-    </row>
-    <row r="32" spans="1:8" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>239</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-    </row>
-    <row r="33" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-    </row>
-    <row r="34" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D34" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E34" s="33" t="s">
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+    </row>
+    <row r="93" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C93" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-    </row>
-    <row r="35" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E35" s="32" t="s">
-        <v>241</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-    </row>
-    <row r="36" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>242</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-    </row>
-    <row r="37" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B37" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E37" s="33" t="s">
+      <c r="E93" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D94" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-    </row>
-    <row r="38" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C38" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D38" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>243</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-    </row>
-    <row r="39" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="B39" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-    </row>
-    <row r="40" spans="1:8" ht="156.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E40" s="32" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-    </row>
-    <row r="41" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="24" t="s">
-        <v>246</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>247</v>
-      </c>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-    </row>
-    <row r="42" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C42" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="32" t="s">
-        <v>296</v>
-      </c>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-    </row>
-    <row r="43" spans="1:8" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B43" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E43" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-    </row>
-    <row r="44" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-    </row>
-    <row r="45" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="23" t="s">
-        <v>181</v>
-      </c>
-      <c r="B45" s="24" t="s">
-        <v>310</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-    </row>
-    <row r="46" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D46" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-    </row>
-    <row r="47" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="B47" s="24" t="s">
-        <v>251</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D47" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E47" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-    </row>
-    <row r="48" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="C48" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D48" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>253</v>
-      </c>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-    </row>
-    <row r="49" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>187</v>
-      </c>
-      <c r="B49" s="29" t="s">
-        <v>188</v>
-      </c>
-      <c r="C49" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D49" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-    </row>
-    <row r="50" spans="1:8" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="23" t="s">
-        <v>189</v>
-      </c>
-      <c r="B50" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D50" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>308</v>
-      </c>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-    </row>
-    <row r="51" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C51" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D51" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E51" s="21" t="s">
-        <v>254</v>
-      </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-    </row>
-    <row r="52" spans="1:8" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
-        <v>193</v>
-      </c>
-      <c r="B52" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D52" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-    </row>
-    <row r="53" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="18" t="s">
-        <v>195</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="C53" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D53" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E53" s="34" t="s">
-        <v>256</v>
-      </c>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-    </row>
-    <row r="54" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="24" t="s">
-        <v>198</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E54" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-    </row>
-    <row r="55" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="24" t="s">
-        <v>206</v>
-      </c>
-      <c r="C55" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D55" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E55" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-    </row>
-    <row r="56" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="B56" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E56" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-    </row>
-    <row r="57" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-    </row>
-    <row r="58" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E58" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-    </row>
-    <row r="59" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-    </row>
-    <row r="60" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E60" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-    </row>
-    <row r="61" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E61" s="21" t="s">
-        <v>263</v>
-      </c>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-    </row>
-    <row r="62" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C62" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D62" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E62" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-    </row>
-    <row r="63" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E63" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-    </row>
-    <row r="64" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E64" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-    </row>
-    <row r="65" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-    </row>
-    <row r="66" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E66" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-    </row>
-    <row r="67" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C67" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D67" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-    </row>
-    <row r="68" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-    </row>
-    <row r="69" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E69" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-    </row>
-    <row r="70" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D70" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-    </row>
-    <row r="71" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E71" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-    </row>
-    <row r="72" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D72" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-    </row>
-    <row r="73" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D73" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-    </row>
-    <row r="74" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B74" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E74" s="32" t="s">
-        <v>268</v>
-      </c>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-    </row>
-    <row r="75" spans="1:8" ht="140.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D75" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>267</v>
-      </c>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-    </row>
-    <row r="76" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>218</v>
-      </c>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-    </row>
-    <row r="77" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="B77" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C77" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D77" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E77" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F77" s="22"/>
-      <c r="G77" s="22"/>
-      <c r="H77" s="22"/>
-    </row>
-    <row r="78" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="C78" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D78" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E78" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F78" s="22"/>
-      <c r="G78" s="22"/>
-      <c r="H78" s="22"/>
-    </row>
-    <row r="79" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B79" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F79" s="22"/>
-      <c r="G79" s="22"/>
-      <c r="H79" s="22"/>
-    </row>
-    <row r="80" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B80" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C80" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D80" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E80" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F80" s="22"/>
-      <c r="G80" s="22"/>
-      <c r="H80" s="22"/>
-    </row>
-    <row r="81" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B81" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E81" s="33" t="s">
-        <v>212</v>
-      </c>
-      <c r="F81" s="22"/>
-      <c r="G81" s="22"/>
-      <c r="H81" s="22"/>
-    </row>
-    <row r="82" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="B82" s="26" t="s">
-        <v>79</v>
-      </c>
-      <c r="C82" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D82" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F82" s="22"/>
-      <c r="G82" s="22"/>
-      <c r="H82" s="22"/>
-    </row>
-    <row r="83" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C83" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D83" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-    </row>
-    <row r="84" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="26" t="s">
-        <v>83</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-    </row>
-    <row r="85" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C85" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D85" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E85" s="32" t="s">
-        <v>269</v>
-      </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22"/>
-    </row>
-    <row r="86" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E86" s="32" t="s">
-        <v>270</v>
-      </c>
-      <c r="F86" s="22"/>
-      <c r="G86" s="22"/>
-      <c r="H86" s="22"/>
-    </row>
-    <row r="87" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="B87" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="C87" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D87" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>271</v>
-      </c>
-      <c r="F87" s="22"/>
-      <c r="G87" s="22"/>
-      <c r="H87" s="22"/>
-    </row>
-    <row r="88" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B88" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D88" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E88" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="F88" s="22"/>
-      <c r="G88" s="22"/>
-      <c r="H88" s="22"/>
-    </row>
-    <row r="89" spans="1:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>211</v>
-      </c>
-      <c r="F89" s="22"/>
-      <c r="G89" s="22"/>
-      <c r="H89" s="22"/>
-    </row>
-    <row r="90" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B90" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D90" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E90" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F90" s="22"/>
-      <c r="G90" s="22"/>
-      <c r="H90" s="22"/>
-    </row>
-    <row r="91" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="B91" s="24" t="s">
+      <c r="E94" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+    </row>
+    <row r="95" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="C91" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E91" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F91" s="22"/>
-      <c r="G91" s="22"/>
-      <c r="H91" s="22"/>
-    </row>
-    <row r="92" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="18" t="s">
+      <c r="B95" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="C95" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D95" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E95" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+    </row>
+    <row r="96" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="C92" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D92" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E92" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="F92" s="22"/>
-      <c r="G92" s="22"/>
-      <c r="H92" s="22"/>
-    </row>
-    <row r="93" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="B96" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B93" s="24" t="s">
+      <c r="C96" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D96" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E96" s="43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+    </row>
+    <row r="97" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C93" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D93" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E93" s="32" t="s">
-        <v>272</v>
-      </c>
-      <c r="F93" s="22"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-    </row>
-    <row r="94" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="18" t="s">
+      <c r="B97" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="C97" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+    </row>
+    <row r="98" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="C94" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E94" s="32" t="s">
-        <v>273</v>
-      </c>
-      <c r="F94" s="22"/>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22"/>
-    </row>
-    <row r="95" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="23" t="s">
+      <c r="B98" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="B95" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D95" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F95" s="22"/>
-      <c r="G95" s="22"/>
-      <c r="H95" s="22"/>
-    </row>
-    <row r="96" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="B96" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>275</v>
-      </c>
-      <c r="F96" s="22"/>
-      <c r="G96" s="22"/>
-      <c r="H96" s="22"/>
-    </row>
-    <row r="97" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="B97" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C97" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>276</v>
-      </c>
-      <c r="F97" s="22"/>
-      <c r="G97" s="22"/>
-      <c r="H97" s="22"/>
-    </row>
-    <row r="98" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B98" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C98" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D98" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>277</v>
-      </c>
-      <c r="F98" s="22"/>
-      <c r="G98" s="22"/>
-      <c r="H98" s="22"/>
+      <c r="C98" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D98" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E98" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
     </row>
     <row r="99" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E99" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+    </row>
+    <row r="100" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C100" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D100" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E100" s="41" t="s">
+        <v>291</v>
+      </c>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+    </row>
+    <row r="101" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C101" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+    </row>
+    <row r="102" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B99" s="24" t="s">
+      <c r="C102" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D102" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E102" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+    </row>
+    <row r="103" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="C99" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E99" s="32" t="s">
-        <v>278</v>
-      </c>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-    </row>
-    <row r="100" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="37" t="s">
+      <c r="B103" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B100" s="38" t="s">
+      <c r="C103" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D103" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>294</v>
+      </c>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+    </row>
+    <row r="104" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C100" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D100" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E100" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-    </row>
-    <row r="101" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="B104" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="B101" s="24" t="s">
+      <c r="C104" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D104" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+    </row>
+    <row r="105" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="C101" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-    </row>
-    <row r="102" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="18" t="s">
+      <c r="B105" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="C105" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>296</v>
+      </c>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+    </row>
+    <row r="106" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="C102" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E102" s="32" t="s">
-        <v>281</v>
-      </c>
-      <c r="F102" s="22"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-    </row>
-    <row r="103" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="23" t="s">
+      <c r="B106" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="B103" s="24" t="s">
+      <c r="C106" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E106" s="42" t="s">
+        <v>205</v>
+      </c>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+    </row>
+    <row r="107" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D107" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>300</v>
+      </c>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+    </row>
+    <row r="108" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="C103" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D103" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>282</v>
-      </c>
-      <c r="F103" s="22"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-    </row>
-    <row r="104" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C104" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="D104" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E104" s="27" t="s">
-        <v>209</v>
-      </c>
-      <c r="F104" s="22"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-    </row>
-    <row r="105" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+      <c r="B108" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C108" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E108" s="43" t="s">
+        <v>297</v>
+      </c>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+    </row>
+    <row r="109" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B109" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="B105" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="C105" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D105" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>283</v>
-      </c>
-      <c r="F105" s="22"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-    </row>
-    <row r="106" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="B106" s="19" t="s">
+      <c r="C109" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D109" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E109" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+    </row>
+    <row r="110" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="C106" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D106" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E106" s="32" t="s">
-        <v>284</v>
-      </c>
-      <c r="F106" s="22"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-    </row>
-    <row r="107" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="23" t="s">
+      <c r="B110" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="C110" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D110" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E110" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+    </row>
+    <row r="111" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="C107" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D107" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E107" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="F107" s="22"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-    </row>
-    <row r="108" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="18" t="s">
+      <c r="B111" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="C111" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E111" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+    </row>
+    <row r="112" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D108" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E108" s="32" t="s">
-        <v>285</v>
-      </c>
-      <c r="F108" s="22"/>
-      <c r="G108" s="22"/>
-      <c r="H108" s="22"/>
-    </row>
-    <row r="109" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="B112" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="B109" s="24" t="s">
+      <c r="C112" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E112" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+    </row>
+    <row r="113" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="C109" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D109" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E109" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="F109" s="22"/>
-      <c r="G109" s="22"/>
-      <c r="H109" s="22"/>
-    </row>
-    <row r="110" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="18" t="s">
+      <c r="B113" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="C113" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E113" s="43" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+    </row>
+    <row r="114" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C110" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D110" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E110" s="32" t="s">
-        <v>287</v>
-      </c>
-      <c r="F110" s="22"/>
-      <c r="G110" s="22"/>
-      <c r="H110" s="22"/>
-    </row>
-    <row r="111" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="23" t="s">
+      <c r="B114" s="16" t="s">
         <v>163</v>
       </c>
-      <c r="B111" s="24" t="s">
+      <c r="C114" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E114" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+    </row>
+    <row r="115" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="29" t="s">
         <v>164</v>
       </c>
-      <c r="C111" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D111" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E111" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="F111" s="22"/>
-      <c r="G111" s="22"/>
-      <c r="H111" s="22"/>
-    </row>
-    <row r="112" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="18" t="s">
+      <c r="B115" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B112" s="19" t="s">
-        <v>166</v>
-      </c>
-      <c r="C112" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D112" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E112" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="F112" s="22"/>
-      <c r="G112" s="22"/>
-      <c r="H112" s="22"/>
-    </row>
-    <row r="113" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B113" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="C113" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D113" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>290</v>
-      </c>
-      <c r="F113" s="22"/>
-      <c r="G113" s="22"/>
-      <c r="H113" s="22"/>
-    </row>
-    <row r="114" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="B114" s="48"/>
-      <c r="C114" s="48"/>
-      <c r="D114" s="48"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="22"/>
-      <c r="G114" s="22"/>
-      <c r="H114" s="22"/>
-    </row>
-    <row r="115" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="B115" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C115" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D115" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E115" s="46"/>
-      <c r="F115" s="22"/>
-      <c r="G115" s="22"/>
-      <c r="H115" s="22"/>
-    </row>
-    <row r="116" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="41" t="s">
-        <v>312</v>
-      </c>
-      <c r="B116" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C116" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D116" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E116" s="32"/>
-    </row>
-    <row r="117" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="B117" s="44" t="s">
-        <v>314</v>
-      </c>
-      <c r="C117" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D117" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E117" s="46"/>
+      <c r="C115" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D115" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E115" s="43" t="s">
+        <v>352</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+    </row>
+    <row r="116" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="36" t="s">
+        <v>231</v>
+      </c>
+      <c r="B116" s="37"/>
+      <c r="C116" s="37"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="38"/>
+      <c r="F116" s="18"/>
+      <c r="G116" s="18"/>
+      <c r="H116" s="18"/>
+    </row>
+    <row r="117" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="31" t="s">
+        <v>226</v>
+      </c>
+      <c r="B117" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="C117" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E117" s="50"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
     </row>
     <row r="118" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="41" t="s">
-        <v>315</v>
-      </c>
-      <c r="B118" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D118" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E118" s="32"/>
-    </row>
-    <row r="119" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="B119" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C119" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D119" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E119" s="46"/>
+      <c r="A118" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="B118" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E118" s="43"/>
+    </row>
+    <row r="119" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="C119" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E119" s="50"/>
     </row>
     <row r="120" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="41" t="s">
-        <v>318</v>
-      </c>
-      <c r="B120" s="42" t="s">
-        <v>321</v>
-      </c>
-      <c r="C120" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D120" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E120" s="32"/>
-    </row>
-    <row r="121" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="B121" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C121" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="D121" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="E121" s="46"/>
+      <c r="A120" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="30" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E120" s="43"/>
+    </row>
+    <row r="121" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="31" t="s">
+        <v>232</v>
+      </c>
+      <c r="B121" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D121" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E121" s="50"/>
     </row>
     <row r="122" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="41" t="s">
-        <v>327</v>
-      </c>
-      <c r="B122" s="42" t="s">
-        <v>328</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D122" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E122" s="32" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="B123" s="51" t="s">
-        <v>333</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E123" s="32" t="s">
-        <v>331</v>
-      </c>
+      <c r="A122" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="B122" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="C122" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D122" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E122" s="43"/>
+    </row>
+    <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="31" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123" s="32" t="s">
+        <v>238</v>
+      </c>
+      <c r="C123" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D123" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="E123" s="50"/>
     </row>
     <row r="124" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="41" t="s">
-        <v>330</v>
-      </c>
-      <c r="B124" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="C124" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="D124" s="20" t="s">
-        <v>201</v>
-      </c>
-      <c r="E124" s="32" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A124" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="B124" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D124" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E124" s="43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D125" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E125" s="43" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="C126" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E126" s="43" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="B127" s="35" t="s">
+        <v>254</v>
+      </c>
+      <c r="C127" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D127" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E127" s="43" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="B128" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C128" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E128" s="43" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="B129" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="C129" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D129" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="C130" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E130" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D131" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E131" s="43" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C132" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="D132" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="E132" s="43" t="s">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:G108">
     <sortCondition ref="A1"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A116:E116"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C113">
-    <cfRule type="cellIs" dxfId="63" priority="50" operator="equal">
+  <conditionalFormatting sqref="C7:C115">
+    <cfRule type="cellIs" dxfId="53" priority="55" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:D113">
-    <cfRule type="cellIs" dxfId="62" priority="49" operator="equal">
+  <conditionalFormatting sqref="D7:D115">
+    <cfRule type="cellIs" dxfId="52" priority="54" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C7:D113">
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+  <conditionalFormatting sqref="C7:D115">
+    <cfRule type="cellIs" dxfId="51" priority="52" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="48" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115:D115">
-    <cfRule type="cellIs" dxfId="59" priority="43" operator="equal">
-      <formula>"NEUTRAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="44" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="cellIs" dxfId="57" priority="46" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D115">
-    <cfRule type="cellIs" dxfId="56" priority="45" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119:D119">
-    <cfRule type="cellIs" dxfId="55" priority="27" operator="equal">
-      <formula>"NEUTRAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="28" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="cellIs" dxfId="53" priority="42" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D116">
-    <cfRule type="cellIs" dxfId="52" priority="41" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116:D116">
-    <cfRule type="cellIs" dxfId="51" priority="39" operator="equal">
-      <formula>"NEUTRAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="53" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117:D117">
-    <cfRule type="cellIs" dxfId="49" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="48" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="49" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="cellIs" dxfId="47" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="51" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D117">
-    <cfRule type="cellIs" dxfId="46" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="50" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C121:D121">
+    <cfRule type="cellIs" dxfId="45" priority="32" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="cellIs" dxfId="45" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="47" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D118">
-    <cfRule type="cellIs" dxfId="44" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="46" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:D118">
-    <cfRule type="cellIs" dxfId="43" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="44" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119:D119">
+    <cfRule type="cellIs" dxfId="39" priority="40" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="cellIs" dxfId="41" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="43" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D119">
-    <cfRule type="cellIs" dxfId="40" priority="29" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D118">
-    <cfRule type="cellIs" dxfId="39" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="42" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="cellIs" dxfId="38" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="39" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D120">
-    <cfRule type="cellIs" dxfId="37" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="38" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120:D120">
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="36" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D120">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121:D121">
-    <cfRule type="cellIs" dxfId="33" priority="16" operator="equal">
-      <formula>"NEUTRAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="31" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="35" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D121">
-    <cfRule type="cellIs" dxfId="30" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="34" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D120">
+    <cfRule type="cellIs" dxfId="29" priority="31" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="29" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122:D122">
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D122">
-    <cfRule type="cellIs" dxfId="21" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C123:D123">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="24" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
-      <formula>"NO"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123:D123">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
-      <formula>"NEUTRAL"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
-      <formula>"YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="23" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124">
-    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="20" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C124:D124">
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"NEUTRAL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="18" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125:D125">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D125">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126:C131">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126:D131">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126:D131">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D126:D131">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132:D132">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"NEUTRAL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D132">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C125:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C133:C1048576">
       <formula1>"OK"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:D113 C115:D124">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C117:D132 C7:D115">
       <formula1>"YES,NO,NEUTRAL"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="367">
   <si>
     <t>Event_001</t>
   </si>
@@ -871,9 +871,6 @@
     <t>When an event is dispatched, that event can only initiate a RTC step if the transition(s) it enables materialize a valid path to a new state machine configuration. If this event only enable transition(s) that cannot bring the state machine to a valid configuration then this event is lost.</t>
   </si>
   <si>
-    <t>Deferred 005 Test verifies this requirement</t>
-  </si>
-  <si>
     <t>Deferred_004</t>
   </si>
   <si>
@@ -886,55 +883,25 @@
     <t>Deferred_006</t>
   </si>
   <si>
-    <t>Deferred 006 - A Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Deferred 006 - B Test verifies this requirement</t>
-  </si>
-  <si>
     <t>A state is not allowed to defer an event occurrence for which a doActivity invoked from that state has already registered an event accepter. As an example, if S is dispatched and a state S1 can defer that event occurrence then S can only be deferred if S1 has not invoked a doActivity which has registered an event accepter for S.</t>
   </si>
   <si>
-    <t>A doActivity is allowed to accept directly from the deferred pool of the state machine an event occurrence deferred by the state from which it was invoked and for wich it is registering an event accepter. As an example, if S has been deferred by state S1 and the doActivity invoked from S1 registers an event accepter for S then S is accepted by the doActivity from the deferred event pool.</t>
-  </si>
-  <si>
     <t>A specialized StateMachine will have all the elements of the general StateMachine, and it may include additional elements. Regions may be added. Inherited Regions may be redefined by extension: States and Vertices are inherited, and States and Transitions of the Regions of the StateMachine may be redefined.</t>
   </si>
   <si>
-    <t>Redefinition001_Test, Redefinition002_Test and Redefinition003_Test verifies this requirement</t>
-  </si>
-  <si>
     <t>A state can have entry, doActivity and exit behaviors. If the redefining state does not declare one of these behavior then this behavior if specified in the redefined state (direct or indirect) is inherited by the redefining state.</t>
   </si>
   <si>
     <t>The set of deferrable trigger of a redefining state is the set of deferrable triggers declared by that state plus the set of deferrable triggers declared in redefined (directcly or indirectly) states.</t>
   </si>
   <si>
-    <t>The set of trigger owned by a redefining transition is the set of trigger delcared by that transition plus the set of trigger defined in redefined (directly or indirectly) transition.</t>
-  </si>
-  <si>
     <t>A transition can have an effect behavior. If a redefining transition does not declare an effect behavior then if a redefined (direct or indirect) transition declares an effect, this latter is inherited by the redefining transition.</t>
   </si>
   <si>
-    <t>Redefinition006_Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Redefinition004_Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Redefinition005_Test verifies this requirement</t>
-  </si>
-  <si>
-    <t>Redefinition002_Test verifies this requirement</t>
-  </si>
-  <si>
     <t xml:space="preserve">A transition can have an effect behavior. If a redefining transition declares an effect behavior, then this behavior is used (i.e. it replaces if any an effect specified by a redefined transition). </t>
   </si>
   <si>
     <t>A state can have entry, doActivity and exit behaviors. If the redefining state has one of this behavior then this latter is used (i.e. it replaces if any the behavior that may have been specified by a redefined state)</t>
-  </si>
-  <si>
-    <t>Redefinition003_Test verifies this requirement</t>
   </si>
   <si>
     <t>Redefinition_002</t>
@@ -1722,6 +1689,85 @@
 Fork 001.
 Fork 002.
 Entering 010.</t>
+  </si>
+  <si>
+    <t>Redefinition001.
+Note that also Redefinition 002 and Redefinition003 verify this requirement.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requirement is shown in Entry 002 E and Junction 004.</t>
+  </si>
+  <si>
+    <t>This is clearly related to Transition 024. We definitely need a test for that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dedicated test.
+Nevertheless support for this requirement is shown Junction 004 and Junction 005. </t>
+  </si>
+  <si>
+    <t>No dedicated test. 
+Nevertheless support for this requirement is shown in Junction 006, and Event 017 B.</t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requirement is shown in Event 019 A, Event 019 B and Event 019 C.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dedicated test.
+Nevertheless support for this requirement is shown in Event 019 D, </t>
+  </si>
+  <si>
+    <t>No dedicated test.
+Nevertheless support for this requirement is shown in Event 019 E.</t>
+  </si>
+  <si>
+    <t>Deferred 005.</t>
+  </si>
+  <si>
+    <t>A doActivity is allowed to accept directly from the deferred pool of the state machine an event occurrence deferred by the state from which it was invoked and for which it is registering an event accepter. As an example, if S has been deferred by state S1 and the doActivity invoked from S1 registers an event accepter for S then S is accepted by the doActivity from the deferred event pool.</t>
+  </si>
+  <si>
+    <t>The set of trigger owned by a redefining transition is the set of trigger declared by that transition plus the set of trigger defined in redefined (directly or indirectly) transition.</t>
+  </si>
+  <si>
+    <t>Redefinition004.</t>
+  </si>
+  <si>
+    <t>Deferred 006 A.</t>
+  </si>
+  <si>
+    <t>Deferred 006 B.</t>
+  </si>
+  <si>
+    <t>Redefinition 002.</t>
+  </si>
+  <si>
+    <t>Redefinition 005.</t>
+  </si>
+  <si>
+    <t>Redefinition 006.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Redefinition 004.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Redefinition 005 must be improved to account for effect overriding.</t>
+    </r>
+  </si>
+  <si>
+    <t>Redefinition 001. 
+Redefinition 002.
+Redefinition 003.</t>
   </si>
 </sst>
 </file>
@@ -4359,8 +4405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E79" sqref="E79"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4442,10 +4488,10 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>196</v>
@@ -4454,7 +4500,7 @@
         <v>197</v>
       </c>
       <c r="E6" s="51" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -4474,7 +4520,7 @@
         <v>198</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -4494,7 +4540,7 @@
         <v>198</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -4514,7 +4560,7 @@
         <v>198</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -4534,7 +4580,7 @@
         <v>198</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -4554,7 +4600,7 @@
         <v>198</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -4574,7 +4620,7 @@
         <v>198</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -4594,7 +4640,7 @@
         <v>198</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -4614,7 +4660,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -4634,7 +4680,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -4654,7 +4700,7 @@
         <v>198</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -4674,7 +4720,7 @@
         <v>198</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -4694,7 +4740,7 @@
         <v>198</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -4714,7 +4760,7 @@
         <v>198</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4734,7 +4780,7 @@
         <v>198</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -4754,7 +4800,7 @@
         <v>198</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4774,7 +4820,7 @@
         <v>198</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -4794,7 +4840,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -4814,7 +4860,7 @@
         <v>198</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -4834,7 +4880,7 @@
         <v>198</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -4854,7 +4900,7 @@
         <v>198</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -4894,7 +4940,7 @@
         <v>198</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -4934,7 +4980,7 @@
         <v>198</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -4954,7 +5000,7 @@
         <v>198</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -4974,7 +5020,7 @@
         <v>198</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -5034,7 +5080,7 @@
         <v>198</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -5054,7 +5100,7 @@
         <v>198</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -5094,7 +5140,7 @@
         <v>198</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -5114,7 +5160,7 @@
         <v>198</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5134,7 +5180,7 @@
         <v>198</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -5154,7 +5200,7 @@
         <v>198</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -5174,7 +5220,7 @@
         <v>198</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -5234,7 +5280,7 @@
         <v>198</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -5254,7 +5300,7 @@
         <v>198</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -5274,7 +5320,7 @@
         <v>198</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -5294,7 +5340,7 @@
         <v>198</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -5314,7 +5360,7 @@
         <v>198</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -5334,7 +5380,7 @@
         <v>198</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -5354,7 +5400,7 @@
         <v>198</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -5374,7 +5420,7 @@
         <v>198</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -5414,7 +5460,7 @@
         <v>198</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -5434,7 +5480,7 @@
         <v>198</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -5474,7 +5520,7 @@
         <v>198</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -5494,7 +5540,7 @@
         <v>198</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -5514,7 +5560,7 @@
         <v>198</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -5534,7 +5580,7 @@
         <v>198</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -5554,7 +5600,7 @@
         <v>198</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -5574,7 +5620,7 @@
         <v>198</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -5614,7 +5660,7 @@
         <v>198</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -5634,7 +5680,7 @@
         <v>198</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -5654,7 +5700,7 @@
         <v>198</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -5674,7 +5720,7 @@
         <v>198</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -5694,7 +5740,7 @@
         <v>198</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -5705,7 +5751,7 @@
         <v>88</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>198</v>
@@ -5714,7 +5760,7 @@
         <v>198</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -5734,7 +5780,7 @@
         <v>198</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -5754,7 +5800,7 @@
         <v>198</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -5774,7 +5820,7 @@
         <v>198</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -5794,7 +5840,7 @@
         <v>198</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
@@ -5802,10 +5848,10 @@
     </row>
     <row r="74" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>198</v>
@@ -5814,7 +5860,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>251</v>
+        <v>348</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -5822,10 +5868,10 @@
     </row>
     <row r="75" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>198</v>
@@ -5834,7 +5880,7 @@
         <v>198</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -5854,7 +5900,7 @@
         <v>198</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -5874,7 +5920,7 @@
         <v>198</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -5894,7 +5940,7 @@
         <v>198</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -6074,7 +6120,7 @@
         <v>198</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -6094,7 +6140,7 @@
         <v>198</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -6114,7 +6160,7 @@
         <v>198</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -6154,7 +6200,7 @@
         <v>198</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -6234,7 +6280,7 @@
         <v>198</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
@@ -6254,7 +6300,7 @@
         <v>198</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -6274,7 +6320,7 @@
         <v>198</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
@@ -6294,7 +6340,7 @@
         <v>198</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
@@ -6314,7 +6360,7 @@
         <v>198</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
@@ -6334,7 +6380,7 @@
         <v>198</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
@@ -6354,7 +6400,7 @@
         <v>198</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
@@ -6374,7 +6420,7 @@
         <v>198</v>
       </c>
       <c r="E102" s="48" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
@@ -6394,7 +6440,7 @@
         <v>198</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
@@ -6414,7 +6460,7 @@
         <v>198</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
@@ -6434,7 +6480,7 @@
         <v>198</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
@@ -6474,7 +6520,7 @@
         <v>198</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
@@ -6494,7 +6540,7 @@
         <v>198</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
@@ -6514,7 +6560,7 @@
         <v>198</v>
       </c>
       <c r="E109" s="49" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
@@ -6534,7 +6580,7 @@
         <v>198</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
@@ -6554,7 +6600,7 @@
         <v>198</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
@@ -6571,10 +6617,10 @@
         <v>198</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -6594,7 +6640,7 @@
         <v>198</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
@@ -6614,7 +6660,7 @@
         <v>198</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -6634,7 +6680,7 @@
         <v>198</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
@@ -6665,7 +6711,9 @@
       <c r="D117" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E117" s="50"/>
+      <c r="E117" s="50" t="s">
+        <v>351</v>
+      </c>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
       <c r="H117" s="18"/>
@@ -6683,7 +6731,9 @@
       <c r="D118" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E118" s="43"/>
+      <c r="E118" s="43" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="119" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
@@ -6696,9 +6746,11 @@
         <v>198</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="E119" s="50"/>
+        <v>291</v>
+      </c>
+      <c r="E119" s="50" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="120" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
@@ -6713,7 +6765,9 @@
       <c r="D120" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E120" s="43"/>
+      <c r="E120" s="43" t="s">
+        <v>352</v>
+      </c>
     </row>
     <row r="121" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
@@ -6728,7 +6782,9 @@
       <c r="D121" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E121" s="50"/>
+      <c r="E121" s="50" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="122" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
@@ -6743,7 +6799,9 @@
       <c r="D122" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E122" s="43"/>
+      <c r="E122" s="43" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
@@ -6758,15 +6816,17 @@
       <c r="D123" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E123" s="50"/>
+      <c r="E123" s="50" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="B124" s="30" t="s">
         <v>242</v>
       </c>
-      <c r="B124" s="30" t="s">
-        <v>243</v>
-      </c>
       <c r="C124" s="17" t="s">
         <v>198</v>
       </c>
@@ -6774,15 +6834,15 @@
         <v>198</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>241</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>198</v>
@@ -6791,15 +6851,15 @@
         <v>198</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>246</v>
+        <v>360</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>249</v>
+        <v>357</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>198</v>
@@ -6808,15 +6868,15 @@
         <v>198</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>247</v>
+        <v>361</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>254</v>
+        <v>358</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>198</v>
@@ -6825,15 +6885,15 @@
         <v>198</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>198</v>
@@ -6842,15 +6902,15 @@
         <v>198</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>262</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>198</v>
@@ -6859,15 +6919,15 @@
         <v>198</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>198</v>
@@ -6876,15 +6936,15 @@
         <v>198</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>198</v>
@@ -6893,15 +6953,15 @@
         <v>198</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>258</v>
+        <v>363</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>198</v>
@@ -6910,7 +6970,7 @@
         <v>198</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>256</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="366">
   <si>
     <t>Event_001</t>
   </si>
@@ -1153,12 +1153,6 @@
 Note that Entry002_Test_E and all the Junction_00X serie also show support for this requirement.</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>TODO</t>
-  </si>
-  <si>
     <t>Transition 017.
 Event 016 B.
 Entering 011.</t>
@@ -1699,9 +1693,6 @@
 Nevertheless support for this requirement is shown in Entry 002 E and Junction 004.</t>
   </si>
   <si>
-    <t>This is clearly related to Transition 024. We definitely need a test for that.</t>
-  </si>
-  <si>
     <t xml:space="preserve">No dedicated test.
 Nevertheless support for this requirement is shown Junction 004 and Junction 005. </t>
   </si>
@@ -1768,6 +1759,14 @@
     <t>Redefinition 001. 
 Redefinition 002.
 Redefinition 003.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dedicated test
+Nevertheless support for this requirement is shown in Choice 005. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No dedicated test
+Choice 005 demonstrates that guards evaluation for transitions outgoing a choice pseudostate occur during the step and not prior to that step. </t>
   </si>
 </sst>
 </file>
@@ -3364,7 +3363,7 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4405,8 +4404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4479,11 +4478,11 @@
       </c>
       <c r="G5" s="8">
         <f xml:space="preserve"> COUNTIF(D7:D115,"YES") + COUNTIF(D7:D115,"NEUTRAL")</f>
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H5" s="10">
         <f xml:space="preserve"> (G5 * 100) / G3</f>
-        <v>99.082568807339456</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -4700,7 +4699,7 @@
         <v>198</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -4720,7 +4719,7 @@
         <v>198</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -4740,7 +4739,7 @@
         <v>198</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -4760,7 +4759,7 @@
         <v>198</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4780,7 +4779,7 @@
         <v>198</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -4800,7 +4799,7 @@
         <v>198</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4820,7 +4819,7 @@
         <v>198</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -4840,7 +4839,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -4860,7 +4859,7 @@
         <v>198</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -4880,7 +4879,7 @@
         <v>198</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -4900,7 +4899,7 @@
         <v>198</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -4940,7 +4939,7 @@
         <v>198</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -4980,7 +4979,7 @@
         <v>198</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -5000,7 +4999,7 @@
         <v>198</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -5020,7 +5019,7 @@
         <v>198</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -5080,7 +5079,7 @@
         <v>198</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -5100,7 +5099,7 @@
         <v>198</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -5140,7 +5139,7 @@
         <v>198</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -5160,7 +5159,7 @@
         <v>198</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5180,7 +5179,7 @@
         <v>198</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -5200,7 +5199,7 @@
         <v>198</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -5220,7 +5219,7 @@
         <v>198</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -5280,7 +5279,7 @@
         <v>198</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -5300,7 +5299,7 @@
         <v>198</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -5320,7 +5319,7 @@
         <v>198</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -5340,7 +5339,7 @@
         <v>198</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -5360,7 +5359,7 @@
         <v>198</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -5380,7 +5379,7 @@
         <v>198</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -5400,7 +5399,7 @@
         <v>198</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -5420,7 +5419,7 @@
         <v>198</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -5460,7 +5459,7 @@
         <v>198</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -5480,7 +5479,7 @@
         <v>198</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -5520,7 +5519,7 @@
         <v>198</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -5540,7 +5539,7 @@
         <v>198</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -5560,7 +5559,7 @@
         <v>198</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -5580,7 +5579,7 @@
         <v>198</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -5600,7 +5599,7 @@
         <v>198</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -5620,7 +5619,7 @@
         <v>198</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -5660,7 +5659,7 @@
         <v>198</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -5680,7 +5679,7 @@
         <v>198</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -5700,7 +5699,7 @@
         <v>198</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -5720,7 +5719,7 @@
         <v>198</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -5740,7 +5739,7 @@
         <v>198</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -5760,7 +5759,7 @@
         <v>198</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -5780,7 +5779,7 @@
         <v>198</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -5800,7 +5799,7 @@
         <v>198</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -5820,7 +5819,7 @@
         <v>198</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -5840,7 +5839,7 @@
         <v>198</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
@@ -5860,7 +5859,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -5880,7 +5879,7 @@
         <v>198</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -5900,7 +5899,7 @@
         <v>198</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -5920,7 +5919,7 @@
         <v>198</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -5940,7 +5939,7 @@
         <v>198</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -6120,7 +6119,7 @@
         <v>198</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -6140,7 +6139,7 @@
         <v>198</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -6617,10 +6616,10 @@
         <v>198</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>292</v>
+        <v>364</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -6640,7 +6639,7 @@
         <v>198</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
@@ -6660,7 +6659,7 @@
         <v>198</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -6680,7 +6679,7 @@
         <v>198</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
@@ -6712,7 +6711,7 @@
         <v>198</v>
       </c>
       <c r="E117" s="50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
@@ -6732,7 +6731,7 @@
         <v>198</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6746,10 +6745,10 @@
         <v>198</v>
       </c>
       <c r="D119" s="33" t="s">
-        <v>291</v>
+        <v>198</v>
       </c>
       <c r="E119" s="50" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6766,7 +6765,7 @@
         <v>198</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6783,7 +6782,7 @@
         <v>198</v>
       </c>
       <c r="E121" s="50" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6800,7 +6799,7 @@
         <v>198</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
@@ -6817,7 +6816,7 @@
         <v>198</v>
       </c>
       <c r="E123" s="50" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6834,7 +6833,7 @@
         <v>198</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6851,7 +6850,7 @@
         <v>198</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6859,7 +6858,7 @@
         <v>244</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>198</v>
@@ -6868,7 +6867,7 @@
         <v>198</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6876,7 +6875,7 @@
         <v>253</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>198</v>
@@ -6885,7 +6884,7 @@
         <v>198</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6902,7 +6901,7 @@
         <v>198</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6919,7 +6918,7 @@
         <v>198</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6936,7 +6935,7 @@
         <v>198</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -6953,7 +6952,7 @@
         <v>198</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6970,7 +6969,7 @@
         <v>198</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/PSSM-Requirements.xlsx
+++ b/Documents/PSSM-Requirements.xlsx
@@ -687,9 +687,6 @@
     <t>it is possible for multiple mutually exclusive Transitions in a given Region to be enabled for firing by the same Event occurrence. In those cases, only one is selected and executed. Which of the enabled Transitions is chosen is determined by the Transition selection algorithm described below. (p.330)</t>
   </si>
   <si>
-    <t>There is no test to demonstrate such support for transitions chained in a compound transition.</t>
-  </si>
-  <si>
     <t>Duplication of Entering001</t>
   </si>
   <si>
@@ -1250,23 +1247,6 @@
 TransitionSelectionAlgorithm.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Behavior 003 A.
-Behavior 003 B.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Note: for the moment no test shows concurrency with behaviors placed on substates.</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">No dedicated test.
 Nevertheless History 002 A shows support for this requirement. </t>
   </si>
@@ -1767,6 +1747,13 @@
   <si>
     <t xml:space="preserve">No dedicated test
 Choice 005 demonstrates that guards evaluation for transitions outgoing a choice pseudostate occur during the step and not prior to that step. </t>
+  </si>
+  <si>
+    <t>Event 016 A demonstrates this for transitions which are not compound. Neverheless a dedicated test is required.</t>
+  </si>
+  <si>
+    <t>Behavior 003 A.
+Behavior 003 B.</t>
   </si>
 </sst>
 </file>
@@ -2650,9 +2637,6 @@
     <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="3" borderId="12" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2673,6 +2657,9 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="39" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -4404,8 +4391,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4487,10 +4474,10 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B6" s="12" t="s">
         <v>264</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>265</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>196</v>
@@ -4498,8 +4485,8 @@
       <c r="D6" s="13" t="s">
         <v>197</v>
       </c>
-      <c r="E6" s="51" t="s">
-        <v>271</v>
+      <c r="E6" s="50" t="s">
+        <v>270</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
@@ -4519,7 +4506,7 @@
         <v>198</v>
       </c>
       <c r="E7" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -4539,7 +4526,7 @@
         <v>198</v>
       </c>
       <c r="E8" s="41" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
@@ -4559,7 +4546,7 @@
         <v>198</v>
       </c>
       <c r="E9" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
@@ -4579,7 +4566,7 @@
         <v>198</v>
       </c>
       <c r="E10" s="41" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
@@ -4599,7 +4586,7 @@
         <v>198</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
@@ -4619,7 +4606,7 @@
         <v>198</v>
       </c>
       <c r="E12" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
@@ -4639,7 +4626,7 @@
         <v>198</v>
       </c>
       <c r="E13" s="41" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
@@ -4659,7 +4646,7 @@
         <v>212</v>
       </c>
       <c r="E14" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
@@ -4679,7 +4666,7 @@
         <v>212</v>
       </c>
       <c r="E15" s="42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F15" s="18"/>
       <c r="G15" s="18"/>
@@ -4699,7 +4686,7 @@
         <v>198</v>
       </c>
       <c r="E16" s="41" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="18"/>
@@ -4719,7 +4706,7 @@
         <v>198</v>
       </c>
       <c r="E17" s="41" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F17" s="18"/>
       <c r="G17" s="18"/>
@@ -4739,7 +4726,7 @@
         <v>198</v>
       </c>
       <c r="E18" s="41" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18"/>
@@ -4759,7 +4746,7 @@
         <v>198</v>
       </c>
       <c r="E19" s="41" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18"/>
@@ -4779,7 +4766,7 @@
         <v>198</v>
       </c>
       <c r="E20" s="41" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
@@ -4799,7 +4786,7 @@
         <v>198</v>
       </c>
       <c r="E21" s="41" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18"/>
@@ -4819,7 +4806,7 @@
         <v>198</v>
       </c>
       <c r="E22" s="41" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="18"/>
@@ -4839,7 +4826,7 @@
         <v>198</v>
       </c>
       <c r="E23" s="41" t="s">
-        <v>307</v>
+        <v>365</v>
       </c>
       <c r="F23" s="18"/>
       <c r="G23" s="18"/>
@@ -4859,7 +4846,7 @@
         <v>198</v>
       </c>
       <c r="E24" s="41" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F24" s="18"/>
       <c r="G24" s="18"/>
@@ -4879,7 +4866,7 @@
         <v>198</v>
       </c>
       <c r="E25" s="41" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
@@ -4899,7 +4886,7 @@
         <v>198</v>
       </c>
       <c r="E26" s="41" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
@@ -4918,8 +4905,8 @@
       <c r="D27" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E27" s="52" t="s">
-        <v>222</v>
+      <c r="E27" s="51" t="s">
+        <v>221</v>
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
@@ -4930,7 +4917,7 @@
         <v>47</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="17" t="s">
         <v>198</v>
@@ -4939,7 +4926,7 @@
         <v>198</v>
       </c>
       <c r="E28" s="41" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
@@ -4958,8 +4945,8 @@
       <c r="D29" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E29" s="52" t="s">
-        <v>222</v>
+      <c r="E29" s="51" t="s">
+        <v>221</v>
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="18"/>
@@ -4979,7 +4966,7 @@
         <v>198</v>
       </c>
       <c r="E30" s="41" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F30" s="18"/>
       <c r="G30" s="18"/>
@@ -4999,7 +4986,7 @@
         <v>198</v>
       </c>
       <c r="E31" s="41" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
@@ -5019,7 +5006,7 @@
         <v>198</v>
       </c>
       <c r="E32" s="41" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
@@ -5079,7 +5066,7 @@
         <v>198</v>
       </c>
       <c r="E35" s="43" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -5099,7 +5086,7 @@
         <v>198</v>
       </c>
       <c r="E36" s="43" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -5139,7 +5126,7 @@
         <v>198</v>
       </c>
       <c r="E38" s="43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
@@ -5159,7 +5146,7 @@
         <v>198</v>
       </c>
       <c r="E39" s="43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -5179,7 +5166,7 @@
         <v>198</v>
       </c>
       <c r="E40" s="43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
@@ -5199,7 +5186,7 @@
         <v>198</v>
       </c>
       <c r="E41" s="43" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -5219,7 +5206,7 @@
         <v>198</v>
       </c>
       <c r="E42" s="43" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F42" s="18"/>
       <c r="G42" s="18"/>
@@ -5238,7 +5225,7 @@
       <c r="D43" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E43" s="52" t="s">
+      <c r="E43" s="51" t="s">
         <v>219</v>
       </c>
       <c r="F43" s="18"/>
@@ -5258,8 +5245,8 @@
       <c r="D44" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="52" t="s">
-        <v>223</v>
+      <c r="E44" s="51" t="s">
+        <v>222</v>
       </c>
       <c r="F44" s="18"/>
       <c r="G44" s="18"/>
@@ -5270,7 +5257,7 @@
         <v>178</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C45" s="17" t="s">
         <v>198</v>
@@ -5279,7 +5266,7 @@
         <v>198</v>
       </c>
       <c r="E45" s="41" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
@@ -5299,7 +5286,7 @@
         <v>198</v>
       </c>
       <c r="E46" s="41" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -5319,7 +5306,7 @@
         <v>198</v>
       </c>
       <c r="E47" s="41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F47" s="18"/>
       <c r="G47" s="18"/>
@@ -5339,7 +5326,7 @@
         <v>198</v>
       </c>
       <c r="E48" s="43" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F48" s="18"/>
       <c r="G48" s="18"/>
@@ -5359,7 +5346,7 @@
         <v>198</v>
       </c>
       <c r="E49" s="43" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F49" s="18"/>
       <c r="G49" s="18"/>
@@ -5379,7 +5366,7 @@
         <v>198</v>
       </c>
       <c r="E50" s="41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -5399,7 +5386,7 @@
         <v>198</v>
       </c>
       <c r="E51" s="41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F51" s="18"/>
       <c r="G51" s="18"/>
@@ -5419,7 +5406,7 @@
         <v>198</v>
       </c>
       <c r="E52" s="41" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F52" s="18"/>
       <c r="G52" s="18"/>
@@ -5438,8 +5425,8 @@
       <c r="D53" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="45" t="s">
-        <v>221</v>
+      <c r="E53" s="52" t="s">
+        <v>364</v>
       </c>
       <c r="F53" s="18"/>
       <c r="G53" s="18"/>
@@ -5459,7 +5446,7 @@
         <v>198</v>
       </c>
       <c r="E54" s="41" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F54" s="18"/>
       <c r="G54" s="18"/>
@@ -5479,7 +5466,7 @@
         <v>198</v>
       </c>
       <c r="E55" s="41" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F55" s="18"/>
       <c r="G55" s="18"/>
@@ -5519,7 +5506,7 @@
         <v>198</v>
       </c>
       <c r="E57" s="41" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18"/>
@@ -5539,7 +5526,7 @@
         <v>198</v>
       </c>
       <c r="E58" s="41" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -5559,7 +5546,7 @@
         <v>198</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18"/>
@@ -5579,7 +5566,7 @@
         <v>198</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F60" s="18"/>
       <c r="G60" s="18"/>
@@ -5599,7 +5586,7 @@
         <v>198</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F61" s="18"/>
       <c r="G61" s="18"/>
@@ -5619,7 +5606,7 @@
         <v>198</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F62" s="18"/>
       <c r="G62" s="18"/>
@@ -5659,7 +5646,7 @@
         <v>198</v>
       </c>
       <c r="E64" s="41" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F64" s="18"/>
       <c r="G64" s="18"/>
@@ -5679,7 +5666,7 @@
         <v>198</v>
       </c>
       <c r="E65" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F65" s="18"/>
       <c r="G65" s="18"/>
@@ -5699,7 +5686,7 @@
         <v>198</v>
       </c>
       <c r="E66" s="41" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F66" s="18"/>
       <c r="G66" s="18"/>
@@ -5719,7 +5706,7 @@
         <v>198</v>
       </c>
       <c r="E67" s="41" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F67" s="18"/>
       <c r="G67" s="18"/>
@@ -5739,7 +5726,7 @@
         <v>198</v>
       </c>
       <c r="E68" s="41" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F68" s="18"/>
       <c r="G68" s="18"/>
@@ -5750,7 +5737,7 @@
         <v>88</v>
       </c>
       <c r="B69" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>198</v>
@@ -5759,7 +5746,7 @@
         <v>198</v>
       </c>
       <c r="E69" s="41" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F69" s="18"/>
       <c r="G69" s="18"/>
@@ -5779,7 +5766,7 @@
         <v>198</v>
       </c>
       <c r="E70" s="41" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
@@ -5799,7 +5786,7 @@
         <v>198</v>
       </c>
       <c r="E71" s="41" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F71" s="18"/>
       <c r="G71" s="18"/>
@@ -5819,7 +5806,7 @@
         <v>198</v>
       </c>
       <c r="E72" s="41" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F72" s="18"/>
       <c r="G72" s="18"/>
@@ -5839,7 +5826,7 @@
         <v>198</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F73" s="18"/>
       <c r="G73" s="18"/>
@@ -5847,10 +5834,10 @@
     </row>
     <row r="74" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="27" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C74" s="17" t="s">
         <v>198</v>
@@ -5859,7 +5846,7 @@
         <v>198</v>
       </c>
       <c r="E74" s="41" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F74" s="18"/>
       <c r="G74" s="18"/>
@@ -5867,10 +5854,10 @@
     </row>
     <row r="75" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B75" s="24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C75" s="17" t="s">
         <v>198</v>
@@ -5879,7 +5866,7 @@
         <v>198</v>
       </c>
       <c r="E75" s="41" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F75" s="18"/>
       <c r="G75" s="18"/>
@@ -5899,7 +5886,7 @@
         <v>198</v>
       </c>
       <c r="E76" s="43" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F76" s="18"/>
       <c r="G76" s="18"/>
@@ -5919,7 +5906,7 @@
         <v>198</v>
       </c>
       <c r="E77" s="43" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F77" s="18"/>
       <c r="G77" s="18"/>
@@ -5939,7 +5926,7 @@
         <v>198</v>
       </c>
       <c r="E78" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F78" s="18"/>
       <c r="G78" s="18"/>
@@ -6058,7 +6045,7 @@
       <c r="D84" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E84" s="46" t="s">
+      <c r="E84" s="45" t="s">
         <v>205</v>
       </c>
       <c r="F84" s="18"/>
@@ -6078,7 +6065,7 @@
       <c r="D85" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E85" s="46" t="s">
+      <c r="E85" s="45" t="s">
         <v>205</v>
       </c>
       <c r="F85" s="18"/>
@@ -6098,7 +6085,7 @@
       <c r="D86" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E86" s="46" t="s">
+      <c r="E86" s="45" t="s">
         <v>205</v>
       </c>
       <c r="F86" s="18"/>
@@ -6119,7 +6106,7 @@
         <v>198</v>
       </c>
       <c r="E87" s="43" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F87" s="18"/>
       <c r="G87" s="18"/>
@@ -6139,7 +6126,7 @@
         <v>198</v>
       </c>
       <c r="E88" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F88" s="18"/>
       <c r="G88" s="18"/>
@@ -6159,7 +6146,7 @@
         <v>198</v>
       </c>
       <c r="E89" s="43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F89" s="18"/>
       <c r="G89" s="18"/>
@@ -6178,7 +6165,7 @@
       <c r="D90" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E90" s="47" t="s">
+      <c r="E90" s="46" t="s">
         <v>206</v>
       </c>
       <c r="F90" s="18"/>
@@ -6199,7 +6186,7 @@
         <v>198</v>
       </c>
       <c r="E91" s="43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F91" s="18"/>
       <c r="G91" s="18"/>
@@ -6279,7 +6266,7 @@
         <v>198</v>
       </c>
       <c r="E95" s="43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F95" s="18"/>
       <c r="G95" s="18"/>
@@ -6299,7 +6286,7 @@
         <v>198</v>
       </c>
       <c r="E96" s="43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F96" s="18"/>
       <c r="G96" s="18"/>
@@ -6319,7 +6306,7 @@
         <v>198</v>
       </c>
       <c r="E97" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="18"/>
@@ -6339,7 +6326,7 @@
         <v>198</v>
       </c>
       <c r="E98" s="41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F98" s="18"/>
       <c r="G98" s="18"/>
@@ -6359,7 +6346,7 @@
         <v>198</v>
       </c>
       <c r="E99" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F99" s="18"/>
       <c r="G99" s="18"/>
@@ -6379,7 +6366,7 @@
         <v>198</v>
       </c>
       <c r="E100" s="41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F100" s="18"/>
       <c r="G100" s="18"/>
@@ -6399,7 +6386,7 @@
         <v>198</v>
       </c>
       <c r="E101" s="43" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F101" s="18"/>
       <c r="G101" s="18"/>
@@ -6418,8 +6405,8 @@
       <c r="D102" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E102" s="48" t="s">
-        <v>282</v>
+      <c r="E102" s="47" t="s">
+        <v>281</v>
       </c>
       <c r="F102" s="18"/>
       <c r="G102" s="18"/>
@@ -6439,7 +6426,7 @@
         <v>198</v>
       </c>
       <c r="E103" s="43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F103" s="18"/>
       <c r="G103" s="18"/>
@@ -6459,7 +6446,7 @@
         <v>198</v>
       </c>
       <c r="E104" s="43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F104" s="18"/>
       <c r="G104" s="18"/>
@@ -6479,7 +6466,7 @@
         <v>198</v>
       </c>
       <c r="E105" s="43" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F105" s="18"/>
       <c r="G105" s="18"/>
@@ -6519,7 +6506,7 @@
         <v>198</v>
       </c>
       <c r="E107" s="43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F107" s="18"/>
       <c r="G107" s="18"/>
@@ -6539,7 +6526,7 @@
         <v>198</v>
       </c>
       <c r="E108" s="43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F108" s="18"/>
       <c r="G108" s="18"/>
@@ -6558,8 +6545,8 @@
       <c r="D109" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="E109" s="49" t="s">
-        <v>287</v>
+      <c r="E109" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="F109" s="18"/>
       <c r="G109" s="18"/>
@@ -6579,7 +6566,7 @@
         <v>198</v>
       </c>
       <c r="E110" s="43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F110" s="18"/>
       <c r="G110" s="18"/>
@@ -6599,7 +6586,7 @@
         <v>198</v>
       </c>
       <c r="E111" s="43" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F111" s="18"/>
       <c r="G111" s="18"/>
@@ -6619,7 +6606,7 @@
         <v>198</v>
       </c>
       <c r="E112" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F112" s="18"/>
       <c r="G112" s="18"/>
@@ -6639,7 +6626,7 @@
         <v>198</v>
       </c>
       <c r="E113" s="43" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F113" s="18"/>
       <c r="G113" s="18"/>
@@ -6659,7 +6646,7 @@
         <v>198</v>
       </c>
       <c r="E114" s="43" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F114" s="18"/>
       <c r="G114" s="18"/>
@@ -6679,7 +6666,7 @@
         <v>198</v>
       </c>
       <c r="E115" s="43" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F115" s="18"/>
       <c r="G115" s="18"/>
@@ -6687,7 +6674,7 @@
     </row>
     <row r="116" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="36" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B116" s="37"/>
       <c r="C116" s="37"/>
@@ -6699,10 +6686,10 @@
     </row>
     <row r="117" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B117" s="32" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C117" s="33" t="s">
         <v>198</v>
@@ -6710,8 +6697,8 @@
       <c r="D117" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E117" s="50" t="s">
-        <v>348</v>
+      <c r="E117" s="49" t="s">
+        <v>346</v>
       </c>
       <c r="F117" s="18"/>
       <c r="G117" s="18"/>
@@ -6719,10 +6706,10 @@
     </row>
     <row r="118" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B118" s="30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C118" s="17" t="s">
         <v>198</v>
@@ -6731,32 +6718,32 @@
         <v>198</v>
       </c>
       <c r="E118" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B119" s="32" t="s">
         <v>228</v>
       </c>
-      <c r="B119" s="32" t="s">
-        <v>229</v>
-      </c>
       <c r="C119" s="33" t="s">
         <v>198</v>
       </c>
       <c r="D119" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E119" s="50" t="s">
-        <v>365</v>
+      <c r="E119" s="49" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B120" s="30" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C120" s="17" t="s">
         <v>198</v>
@@ -6765,15 +6752,15 @@
         <v>198</v>
       </c>
       <c r="E120" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="31" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B121" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C121" s="33" t="s">
         <v>198</v>
@@ -6781,16 +6768,16 @@
       <c r="D121" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E121" s="50" t="s">
-        <v>350</v>
+      <c r="E121" s="49" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="29" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B122" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C122" s="17" t="s">
         <v>198</v>
@@ -6799,33 +6786,33 @@
         <v>198</v>
       </c>
       <c r="E122" s="43" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="31" t="s">
+        <v>236</v>
+      </c>
+      <c r="B123" s="32" t="s">
         <v>237</v>
       </c>
-      <c r="B123" s="32" t="s">
-        <v>238</v>
-      </c>
       <c r="C123" s="33" t="s">
         <v>198</v>
       </c>
       <c r="D123" s="33" t="s">
         <v>198</v>
       </c>
-      <c r="E123" s="50" t="s">
-        <v>352</v>
+      <c r="E123" s="49" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="B124" s="30" t="s">
         <v>241</v>
       </c>
-      <c r="B124" s="30" t="s">
-        <v>242</v>
-      </c>
       <c r="C124" s="17" t="s">
         <v>198</v>
       </c>
@@ -6833,15 +6820,15 @@
         <v>198</v>
       </c>
       <c r="E124" s="43" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C125" s="17" t="s">
         <v>198</v>
@@ -6850,15 +6837,15 @@
         <v>198</v>
       </c>
       <c r="E125" s="43" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B126" s="30" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C126" s="17" t="s">
         <v>198</v>
@@ -6867,15 +6854,15 @@
         <v>198</v>
       </c>
       <c r="E126" s="43" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C127" s="17" t="s">
         <v>198</v>
@@ -6884,15 +6871,15 @@
         <v>198</v>
       </c>
       <c r="E127" s="43" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="29" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B128" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C128" s="17" t="s">
         <v>198</v>
@@ -6901,15 +6888,15 @@
         <v>198</v>
       </c>
       <c r="E128" s="43" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C129" s="17" t="s">
         <v>198</v>
@@ -6918,15 +6905,15 @@
         <v>198</v>
       </c>
       <c r="E129" s="43" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="29" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B130" s="30" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C130" s="17" t="s">
         <v>198</v>
@@ -6935,15 +6922,15 @@
         <v>198</v>
       </c>
       <c r="E130" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C131" s="17" t="s">
         <v>198</v>
@@ -6952,15 +6939,15 @@
         <v>198</v>
       </c>
       <c r="E131" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="29" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B132" s="30" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C132" s="17" t="s">
         <v>198</v>
@@ -6969,7 +6956,7 @@
         <v>198</v>
       </c>
       <c r="E132" s="43" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
